--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BB7C5CF8-09AA-49A7-8ECB-2282A4FF4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A6597C1-2986-42BE-B088-D7F6A132154F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{BB7C5CF8-09AA-49A7-8ECB-2282A4FF4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675E7A40-B2BB-4BAF-8473-256E50BD0024}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="1540" yWindow="3020" windowWidth="19200" windowHeight="10060" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -97,6 +97,49 @@
   <si>
     <t>山多斯先生也是公司職員</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは じしょ です</t>
+  </si>
+  <si>
+    <t>這是我的辭典</t>
+  </si>
+  <si>
+    <t>それは わたし の かさ です</t>
+  </si>
+  <si>
+    <t>この ほん は わたし の です</t>
+  </si>
+  <si>
+    <t>這是原子筆嗎</t>
+  </si>
+  <si>
+    <t>*第2課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那是我的雨傘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この 本 は 私 の です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這本書是我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは 辞書 です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それは 私の傘 です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは ボルーペンですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -561,6 +604,52 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BB7C5CF8-09AA-49A7-8ECB-2282A4FF4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675E7A40-B2BB-4BAF-8473-256E50BD0024}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{BB7C5CF8-09AA-49A7-8ECB-2282A4FF4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D4D726-7677-4EE0-9DF4-6ECF2FCDBB3C}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="3020" windowWidth="19200" windowHeight="10060" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="283">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -102,9 +102,6 @@
     <t>これは じしょ です</t>
   </si>
   <si>
-    <t>這是我的辭典</t>
-  </si>
-  <si>
     <t>それは わたし の かさ です</t>
   </si>
   <si>
@@ -118,28 +115,801 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>あの かた は どなたですか</t>
+  </si>
+  <si>
+    <t>ワットさんです。さくら だいがく せんせい です</t>
+  </si>
+  <si>
+    <t>ワットさんです。桜大学先生です</t>
+  </si>
+  <si>
+    <t>他是瓦特先生，是櫻花大學的老師。</t>
+  </si>
+  <si>
+    <t>ダプタさん は かいしゃいん ですか</t>
+  </si>
+  <si>
+    <t>ダプタさん は 会社員 ですか</t>
+  </si>
+  <si>
+    <t>大鵬達先生是上班族嗎</t>
+  </si>
+  <si>
+    <t>はい、かいしゃいん です</t>
+  </si>
+  <si>
+    <t>カリナさん も かいしゃいん ですか</t>
+  </si>
+  <si>
+    <t>いいえ、カリナさん は、がくせいです</t>
+  </si>
+  <si>
+    <t>いいえ、カリナさん は、学生です</t>
+  </si>
+  <si>
+    <t>喔，卡麗娜小姐不是上班族，她是學生</t>
+  </si>
+  <si>
+    <t>テレーザちゅん は なんさい ですか</t>
+  </si>
+  <si>
+    <t>あの 方は どなたですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那邊那個人是誰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はい、会社員 です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，他是上班族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">カリナさん も 会社員 ですか </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡麗娜小姐也是上班族嗎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テレーザちゅん は 何歳 ですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特雷莎小朋友幾歲呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>９歳です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她今年九歲</t>
+  </si>
+  <si>
+    <t>きゅう さい です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AはBです</t>
+  </si>
+  <si>
+    <t>は:提示主題用,です=是</t>
+  </si>
+  <si>
+    <t>肯定句:A是B</t>
+  </si>
+  <si>
+    <t>肯否句:A不是B</t>
+  </si>
+  <si>
+    <t>A はBですが</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> が:疑問詞</t>
+  </si>
+  <si>
+    <t>疑問句:A是B嗎?</t>
+  </si>
+  <si>
+    <t>A も Bです</t>
+  </si>
+  <si>
+    <t>も: 也,也是</t>
+  </si>
+  <si>
+    <t>也是: A也是B</t>
+  </si>
+  <si>
+    <t>A は B じゃ ありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これ/それ/あれ＋は＋名詞 です</t>
+  </si>
+  <si>
+    <t>這個/那個/那個 是~</t>
+  </si>
+  <si>
+    <t>これは 辞書 です</t>
+  </si>
+  <si>
+    <t>這個是字典</t>
+  </si>
+  <si>
+    <t>それは 私の傘 です</t>
+  </si>
+  <si>
     <t>那是我的雨傘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>この 本 は 私 の です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這本書是我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>これは 辞書 です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>それは 私の傘 です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>これは ボルーペンですか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この/その/あの＋名詞＋は です</t>
+  </si>
+  <si>
+    <t>その:離聽話者近 あの:離雙方都遠</t>
+  </si>
+  <si>
+    <t>這~/那~/那~</t>
+  </si>
+  <si>
+    <t>この 本は 私の です</t>
+  </si>
+  <si>
+    <t>這是我的書</t>
+  </si>
+  <si>
+    <t>これは ボルーペン ですか</t>
+  </si>
+  <si>
+    <t>はい　そうです</t>
+  </si>
+  <si>
+    <t>是的(是原子筆)</t>
+  </si>
+  <si>
+    <t>いいえ([それわ) ノートです</t>
+  </si>
+  <si>
+    <t>不是(原子筆)，(那是)是筆記本</t>
+  </si>
+  <si>
+    <t>いいえ(それわ) てちょう です</t>
+  </si>
+  <si>
+    <t>いいえ(それわ) 手帳です</t>
+  </si>
+  <si>
+    <t>不是(原子筆)，(那是)是記事本</t>
+  </si>
+  <si>
+    <t>これは 「きゅう」 ですか 「なな」 ですか</t>
+  </si>
+  <si>
+    <t>これ は ９ ですか ７ ですか</t>
+  </si>
+  <si>
+    <t>這個字是9還是7</t>
+  </si>
+  <si>
+    <t>きゅうです。</t>
+  </si>
+  <si>
+    <t>「９」です。</t>
+  </si>
+  <si>
+    <t>這個字是9</t>
+  </si>
+  <si>
+    <t>それは なん の ざっし ですか</t>
+  </si>
+  <si>
+    <t>それは 何 の 雑誌 ですか</t>
+  </si>
+  <si>
+    <t>這是什麼雜誌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンビューター の ざっしです </t>
+  </si>
+  <si>
+    <t>コンビューター の 雑誌 です</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 這是電腦雜誌</t>
+  </si>
+  <si>
+    <t>あれは だれ の かばん ですか</t>
+  </si>
+  <si>
+    <t>あれは 誰の かばん ですか</t>
+  </si>
+  <si>
+    <t>這是誰的包包</t>
+  </si>
+  <si>
+    <t>さとう さん の かばん です</t>
+  </si>
+  <si>
+    <t>これは ミレーさんの ですか</t>
+  </si>
+  <si>
+    <t>這個東西是米勒先生的嗎</t>
+  </si>
+  <si>
+    <t>いいえ、わたし の じゃ ありません</t>
+  </si>
+  <si>
+    <t>この かぎ は だれの ですか</t>
+  </si>
+  <si>
+    <t>この かぎ は 誰の ですか</t>
+  </si>
+  <si>
+    <t>這是誰的鑰匙</t>
+  </si>
+  <si>
+    <t>わたし の です</t>
+  </si>
+  <si>
+    <t>私 の です</t>
+  </si>
+  <si>
+    <t>是我的(鑰匙)</t>
+  </si>
+  <si>
+    <t>いいえ、私 の じゃ ありません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喔，這不是我的東西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤さん の かばん です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是佐藤小姐的包包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それは なん ですか。</t>
+  </si>
+  <si>
+    <t>それは 何 ですか。</t>
+  </si>
+  <si>
+    <t>めいし です。</t>
+  </si>
+  <si>
+    <t>名刺 です。</t>
+  </si>
+  <si>
+    <t>那是名片</t>
+  </si>
+  <si>
+    <t>那是什麼東西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それ:離聽話者近 あれ:離雙方都遠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここ/そこ/あそこ＋は＋名詞 です</t>
+  </si>
+  <si>
+    <t>そこ:離聽話者近 あそこ:離雙方都遠</t>
+  </si>
+  <si>
+    <t>這邊/那邊/那邊 是 ~</t>
+  </si>
+  <si>
+    <t>ここ は しょくどう です</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名詞＋は＋ ここ／そこ／あそこ です </t>
+  </si>
+  <si>
+    <t>~是 這邊/那邊/那邊</t>
+  </si>
+  <si>
+    <t>エレベーター は あそこです</t>
+  </si>
+  <si>
+    <t>電梯在那邊</t>
+  </si>
+  <si>
+    <t>どこ</t>
+  </si>
+  <si>
+    <t>哪裡, 疑問句</t>
+  </si>
+  <si>
+    <t>やまだ さん は どこですか</t>
+  </si>
+  <si>
+    <t>あそこです</t>
+  </si>
+  <si>
+    <t>在那裏</t>
+  </si>
+  <si>
+    <t>トイレは どこですか</t>
+  </si>
+  <si>
+    <t>廁所在哪裡</t>
+  </si>
+  <si>
+    <t>こちら/そちら/どちら</t>
+  </si>
+  <si>
+    <t>ここ/そこ/あそこ 的禮貌型</t>
+  </si>
+  <si>
+    <t>這邊/那邊(離聽者近)/那邊(離兩者都遠)</t>
+  </si>
+  <si>
+    <t>じむしょ は どちら ですか</t>
+  </si>
+  <si>
+    <t>事務所 は どちらですか</t>
+  </si>
+  <si>
+    <t>辦公室在哪裡</t>
+  </si>
+  <si>
+    <t>あちらです</t>
+  </si>
+  <si>
+    <t>お くに は どちらですか</t>
+  </si>
+  <si>
+    <t>お国 は どちらですか</t>
+  </si>
+  <si>
+    <t>你是哪一國人</t>
+  </si>
+  <si>
+    <t>たいわん です</t>
+  </si>
+  <si>
+    <t>台湾です</t>
+  </si>
+  <si>
+    <t>台灣</t>
+  </si>
+  <si>
+    <t>それは どこの くつ ですか</t>
+  </si>
+  <si>
+    <t>それは どこの 靴 ですか</t>
+  </si>
+  <si>
+    <t>那是哪邊(做)的鞋子</t>
+  </si>
+  <si>
+    <t>アメリカです</t>
+  </si>
+  <si>
+    <t>美國製的(鞋子)</t>
+  </si>
+  <si>
+    <t>*第3課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここ は 食堂です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡是餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山田さんは どこですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山田先生在哪裡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここ は しんおおさか ですか。</t>
+  </si>
+  <si>
+    <t>ここは 新大阪 ですか。</t>
+  </si>
+  <si>
+    <t>這裡是新大阪站嗎?</t>
+  </si>
+  <si>
+    <t>…はい、そうです。</t>
+  </si>
+  <si>
+    <t>是的(,這裡是新大阪站)</t>
+  </si>
+  <si>
+    <t>おてあらいは どこですか。</t>
+  </si>
+  <si>
+    <t>あそこです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在那邊</t>
+  </si>
+  <si>
+    <t>この とけい は いくら ですか</t>
+  </si>
+  <si>
+    <t>この 時計 は いくらですか</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 這個時鐘(腕表)多少錢</t>
+  </si>
+  <si>
+    <t>いちまん はっせん るっびゃく えん です</t>
+  </si>
+  <si>
+    <t>１８６００円(えん)です</t>
+  </si>
+  <si>
+    <t>一萬八千六</t>
+  </si>
+  <si>
+    <t>お手洗いは どこですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廁所在哪裡?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第17課文型</t>
+  </si>
+  <si>
+    <t>V~ ない で ください</t>
+  </si>
+  <si>
+    <t>請不要做 V~</t>
+  </si>
+  <si>
+    <t>しゃしん を とらない で ください</t>
+  </si>
+  <si>
+    <t>写真 を 撮らない で ください</t>
+  </si>
+  <si>
+    <t>請勿攝影 (禁止攝影)</t>
+  </si>
+  <si>
+    <t>V~ なければ なりません</t>
+  </si>
+  <si>
+    <t>不做 V~(什麼)不行 = 必須要做 V~</t>
+  </si>
+  <si>
+    <t>パスポート を みせ なければ なりません</t>
+  </si>
+  <si>
+    <t>パスポート を 見み なければ なりません</t>
+  </si>
+  <si>
+    <t>你需要出示你的護照</t>
+  </si>
+  <si>
+    <t>= V~ ない と いけません</t>
+  </si>
+  <si>
+    <t>パスポート を みせ ない と いけません</t>
+  </si>
+  <si>
+    <t>パスポート を 見せ ない と いけません</t>
+  </si>
+  <si>
+    <t>V~ なくでも いいです</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不需要 V~ </t>
+  </si>
+  <si>
+    <t>にちようび は はやく おき なくでも いいです</t>
+  </si>
+  <si>
+    <t>日曜日 は 早く 起き なくでも いいです</t>
+  </si>
+  <si>
+    <t>你星期天不需要早起</t>
+  </si>
+  <si>
+    <t>そこ に くるま を とめないで くだだい。</t>
+  </si>
+  <si>
+    <t>そこ に 車 を 止め ないで くだだい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 這邊禁止停車 (止める 止めます 止めない)</t>
+  </si>
+  <si>
+    <t>もう じゅうに じ ですよ ひとり で だいじょうぶ ですが。</t>
+  </si>
+  <si>
+    <t>もう １２時 ですよ 一人 で 大丈夫ですが。  現在已經12點了，你一個人還好嗎。</t>
+  </si>
+  <si>
+    <t>ええ しんぱいしないで ください。タクシーで かえりますから。</t>
+  </si>
+  <si>
+    <t>ええ 心配しないで ください。タクシーで 帰りますから。</t>
+  </si>
+  <si>
+    <t>恩恩，，我搭計程車回家。</t>
+  </si>
+  <si>
+    <t>こんばん のみに いきませんか。</t>
+  </si>
+  <si>
+    <t>今晩 飲みに 行きませんか。</t>
+  </si>
+  <si>
+    <t>今晚要一起去喝酒嗎</t>
+  </si>
+  <si>
+    <t>すみません。あしたから ホンコン へ しゅっちょう しなければ　なりません。ですから、はやく かえります。</t>
+  </si>
+  <si>
+    <t>抱歉今天我不去了，因為明天還要去香港出差，今晚要早一點回家</t>
+  </si>
+  <si>
+    <t>すみません。あしたから 香港 へ 出張 しなければ なりません。ですから、早く 帰ります。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっちょう する/しゅっちょうします/しゅっちょう しなければ なりません</t>
+  </si>
+  <si>
+    <t>出張する/出張します/出張 しなければ なりません</t>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こども も おかね を はらわ なければ なりませんか</t>
+  </si>
+  <si>
+    <t>子ども も お金を 払わ なければ なりませんか</t>
+  </si>
+  <si>
+    <t>小朋友也要付款嗎?</t>
+  </si>
+  <si>
+    <t>いいえ、はらわ なくても いいです。</t>
+  </si>
+  <si>
+    <t>いいえ、払わ なくても いいです。</t>
+  </si>
+  <si>
+    <t>是的，小孩子也要付款</t>
+  </si>
+  <si>
+    <t>はら う/はらい ます/はらわ なければ なりません</t>
+  </si>
+  <si>
+    <t>払う/払います/払わ なければ なりません</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>レポートは いつまでに ださ なければ なりませんか</t>
+  </si>
+  <si>
+    <t>レポートは いつまでに 出さ なければ なりませんか</t>
+  </si>
+  <si>
+    <t>報告最慢什麼時候要交?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きんようび までに だして ください。 </t>
+  </si>
+  <si>
+    <t>金曜日(きんようび)までに 出(だ)して ください。  (報告最遲請在星期五交)</t>
+  </si>
+  <si>
+    <t>*ない形 變化 I</t>
+  </si>
+  <si>
+    <t>第一類動詞 V+ウ段音</t>
+  </si>
+  <si>
+    <t>V+イ段音+ます</t>
+  </si>
+  <si>
+    <t>V+ア段音 + ない  特例 い ==&gt; わ</t>
+  </si>
+  <si>
+    <t>去...哪裡</t>
+  </si>
+  <si>
+    <t>いそぐ いそぎます いそがない</t>
+  </si>
+  <si>
+    <t>趕快</t>
+  </si>
+  <si>
+    <t>等一下</t>
+  </si>
+  <si>
+    <t>すう すいます すわない</t>
+  </si>
+  <si>
+    <t>はなす はなします はなさない</t>
+  </si>
+  <si>
+    <t>說話</t>
+  </si>
+  <si>
+    <t>よむ よみます よまない</t>
+  </si>
+  <si>
+    <t>読む 読みます 読まない</t>
+  </si>
+  <si>
+    <t>閱讀</t>
+  </si>
+  <si>
+    <t>のむ のみます のまない</t>
+  </si>
+  <si>
+    <t>飲む 飲みます 飲まない</t>
+  </si>
+  <si>
+    <t>喝、吃藥</t>
+  </si>
+  <si>
+    <t>かえる かえります かえらない 帰る 帰ります 帰らない</t>
+  </si>
+  <si>
+    <t>回(家)</t>
+  </si>
+  <si>
+    <t>*ない形 變化 II</t>
+  </si>
+  <si>
+    <t>第二類動詞 V</t>
+  </si>
+  <si>
+    <t>V + ます</t>
+  </si>
+  <si>
+    <t>X + ない</t>
+  </si>
+  <si>
+    <t>たべる たべます たべいい</t>
+  </si>
+  <si>
+    <t>食べる 食べます 食べいい</t>
+  </si>
+  <si>
+    <t>吃(東西)</t>
+  </si>
+  <si>
+    <t>いれる いれます いれたい</t>
+  </si>
+  <si>
+    <t>入れる 入れます 入れたい</t>
+  </si>
+  <si>
+    <t>放進去</t>
+  </si>
+  <si>
+    <t>いる います いない</t>
+  </si>
+  <si>
+    <t>おきる おきます おきない</t>
+  </si>
+  <si>
+    <t>起きる 起きます 起きない</t>
+  </si>
+  <si>
+    <t>起床 起來</t>
+  </si>
+  <si>
+    <t>あびる あびます あびない</t>
+  </si>
+  <si>
+    <t>浴びる 浴びます 浴びない</t>
+  </si>
+  <si>
+    <t>洗澡</t>
+  </si>
+  <si>
+    <t>みる みます みない</t>
+  </si>
+  <si>
+    <t>見る 見ます 見ない</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>かりる かります かりない</t>
+  </si>
+  <si>
+    <t>借りる 借ります 借りない</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 借出</t>
+  </si>
+  <si>
+    <t>おりる おります おりない</t>
+  </si>
+  <si>
+    <t>降りる 降ります 降りない</t>
+  </si>
+  <si>
+    <t>*ない形 變化 III</t>
+  </si>
+  <si>
+    <t>きる きます こない</t>
+  </si>
+  <si>
+    <t>来る 来ます 来ない</t>
+  </si>
+  <si>
+    <t>來(地方)</t>
+  </si>
+  <si>
+    <t>しる します しない</t>
+  </si>
+  <si>
+    <t>しんぱいしる しんぱいします しんぱいしない</t>
+  </si>
+  <si>
+    <t>心配しる 心配します 心配しない</t>
+  </si>
+  <si>
+    <t>擔心</t>
+  </si>
+  <si>
+    <t>さんぽしる さんぽします さんぽしない</t>
+  </si>
+  <si>
+    <t>散歩しる 散歩します さんぽしない</t>
+  </si>
+  <si>
+    <t>散步</t>
+  </si>
+  <si>
+    <t>いく いきます いかない</t>
+  </si>
+  <si>
+    <t>行く 行きます 行かない</t>
+  </si>
+  <si>
+    <t>急ぐ 急ぎます 急がない</t>
+  </si>
+  <si>
+    <t>まつ まちます またない</t>
+  </si>
+  <si>
+    <t>待つ 待ちます 待たない</t>
+  </si>
+  <si>
+    <t>吸う 吸います 吸わない</t>
+  </si>
+  <si>
+    <t>吸(菸)(い &gt;&gt; わ)</t>
+  </si>
+  <si>
+    <t>話す 話します 話さない</t>
   </si>
 </sst>
 </file>
@@ -214,10 +984,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +1029,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +1135,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +1277,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,20 +1285,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -535,119 +1309,1081 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>253</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>272</v>
+      </c>
+      <c r="B110" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\365\OneDrive - 廣達國際機械有限公司\Fly\日語\日語練習網站\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{BB7C5CF8-09AA-49A7-8ECB-2282A4FF4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D4D726-7677-4EE0-9DF4-6ECF2FCDBB3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1A087-4ECF-42ED-9B0D-C2C0236772B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="358">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -910,6 +910,238 @@
   </si>
   <si>
     <t>話す 話します 話さない</t>
+  </si>
+  <si>
+    <t>*第4課文型</t>
+  </si>
+  <si>
+    <t>いま よん じ ご ふん です</t>
+  </si>
+  <si>
+    <t>わたし わ まいあさ ろく じ に おき です</t>
+  </si>
+  <si>
+    <t>私わ 毎朝 6時 に 起き です</t>
+  </si>
+  <si>
+    <t>我每天早上6點起床</t>
+  </si>
+  <si>
+    <t>わたし わ きのう べんきょう しました</t>
+  </si>
+  <si>
+    <t>私わ 昨日 勉強 しました</t>
+  </si>
+  <si>
+    <t>我昨天在用功讀書</t>
+  </si>
+  <si>
+    <t>いま なん じ ですか</t>
+  </si>
+  <si>
+    <t>今何時ですか</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 現在幾點了</t>
+  </si>
+  <si>
+    <t>にじ じゅうぷん です</t>
+  </si>
+  <si>
+    <t>2時10分です</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 現在2點10分</t>
+  </si>
+  <si>
+    <t>ニューヨーク は いま なん じ ですか。</t>
+  </si>
+  <si>
+    <t>ニューヨーク は 今何時 ですか。</t>
+  </si>
+  <si>
+    <t>紐約現在幾點了</t>
+  </si>
+  <si>
+    <t>ご ぜん れろ じ じゅう ぷん です。</t>
+  </si>
+  <si>
+    <t>午前０時１０分です。</t>
+  </si>
+  <si>
+    <t>凌晨(早上)0點10分</t>
+  </si>
+  <si>
+    <t>やす みは なんようび ですか。</t>
+  </si>
+  <si>
+    <t>どようび と にちようび です。</t>
+  </si>
+  <si>
+    <t>土曜日 と 日曜日です。</t>
+  </si>
+  <si>
+    <t>星期六和星期天放價</t>
+  </si>
+  <si>
+    <t>アップル ぎんこう は なんじ から なんじ まで ですか。</t>
+  </si>
+  <si>
+    <t>アップル 銀行 は 何時から 何時まで ですか。</t>
+  </si>
+  <si>
+    <t>蘋果銀行營業時間是幾點到幾點？</t>
+  </si>
+  <si>
+    <t>きゅう じ から さん じ まで です。</t>
+  </si>
+  <si>
+    <t>９時から ３時まで です。</t>
+  </si>
+  <si>
+    <t>早上 9 點到下午 3 點</t>
+  </si>
+  <si>
+    <t>まいばん なんじ ねますか。</t>
+  </si>
+  <si>
+    <t>毎晩 何時 寝ますか。</t>
+  </si>
+  <si>
+    <t>晚上都幾點睡覺</t>
+  </si>
+  <si>
+    <t>じゅういち じ に ねます。</t>
+  </si>
+  <si>
+    <t>11時 に 寝ます。</t>
+  </si>
+  <si>
+    <t>11 點就寢</t>
+  </si>
+  <si>
+    <t>まいにち なんじ から なんじ まで べんきょう しますか。</t>
+  </si>
+  <si>
+    <t>毎日 何時から 何時まで 勉強 しますか。</t>
+  </si>
+  <si>
+    <t>每天都幾點到幾點讀書(上學)</t>
+  </si>
+  <si>
+    <t>あさ きゅう じ から ごご さん じ まで べんきょう します</t>
+  </si>
+  <si>
+    <t>朝９時から 午後３時じまで 勉強 します</t>
+  </si>
+  <si>
+    <t>早上 9 點到下午 3 點讀書(上學)</t>
+  </si>
+  <si>
+    <t>どようび はたらき ますか。</t>
+  </si>
+  <si>
+    <t>土曜日 働き ますか。</t>
+  </si>
+  <si>
+    <t>星期六要工作嗎？</t>
+  </si>
+  <si>
+    <t>いいえ、はたらき ません。</t>
+  </si>
+  <si>
+    <t>いいえ、働き ません。</t>
+  </si>
+  <si>
+    <t>星期六不用工作</t>
+  </si>
+  <si>
+    <t>きのう べんきょう しましたか。</t>
+  </si>
+  <si>
+    <t>昨日 勉強しましたか。</t>
+  </si>
+  <si>
+    <t>昨天有用功讀書嗎</t>
+  </si>
+  <si>
+    <t>いいえ、べんきょう しませんでした。</t>
+  </si>
+  <si>
+    <t>いいえ、勉強しませんでした。</t>
+  </si>
+  <si>
+    <t>昨天沒有用功。</t>
+  </si>
+  <si>
+    <t>休みは 何曜日 ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 那一天放假（是休息日）？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今4時5分 です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在是四點五分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第5課文型</t>
+  </si>
+  <si>
+    <t>いきます かえります きました</t>
+  </si>
+  <si>
+    <t>行きます 帰ります 来ました</t>
+  </si>
+  <si>
+    <t>去某地 回(家) 來(這裡)</t>
+  </si>
+  <si>
+    <t>わたし は きょうと へ いきます</t>
+  </si>
+  <si>
+    <t>私 は 京都 へ 行きます</t>
+  </si>
+  <si>
+    <t>我去京都</t>
+  </si>
+  <si>
+    <t>A は 交通工具 で 地點(場所) へ 帰(かえ)ります(行(い)きます)（来(き)ました）</t>
+  </si>
+  <si>
+    <t>わたし は タクシー で いえ へ かえります。</t>
+  </si>
+  <si>
+    <t>私は タクシー で 家 へ 帰ります。</t>
+  </si>
+  <si>
+    <t>我搭計程車回家</t>
+  </si>
+  <si>
+    <t>わたし は かぞく と にほん へ きました。</t>
+  </si>
+  <si>
+    <t>私 は 家族 と 日本 へ 来ました。</t>
+  </si>
+  <si>
+    <t>我和家人一起來到日本(過去式)</t>
+  </si>
+  <si>
+    <t>A は 地點(場所) へ行(い)きます(帰(かえ)ります)（来(き)ました）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去、來、回去某地點用 へ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去、來、回去某地點的交通工具用 で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,10 +1214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1296,6 +1524,9 @@
     <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1950,439 +2181,718 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>300</v>
+      </c>
+      <c r="B73" t="s">
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>308</v>
+      </c>
+      <c r="C76" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>335</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>275</v>
-      </c>
-      <c r="B88" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>278</v>
-      </c>
-      <c r="B90" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="C90" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>231</v>
-      </c>
-      <c r="B93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>174</v>
+      </c>
+      <c r="C95" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>184</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>257</v>
-      </c>
-      <c r="C103" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>264</v>
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="C109" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B137" t="s">
         <v>273</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C137" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{BB7C5CF8-09AA-49A7-8ECB-2282A4FF4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25149CE0-B8B8-4FDD-A6E5-A47E5759987B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A628C-B64F-45EE-9D6C-D28AF355A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="359">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -530,6 +530,9 @@
     <t>這裡是新大阪站嗎?</t>
   </si>
   <si>
+    <t>…はい、そうです。</t>
+  </si>
+  <si>
     <t>是的(,這裡是新大阪站)</t>
   </si>
   <si>
@@ -798,7 +801,235 @@
     <t>吸(菸)(い &gt;&gt; わ)</t>
   </si>
   <si>
-    <t>…はい、そうです。</t>
+    <t>*第4課文型</t>
+  </si>
+  <si>
+    <t>いま よん じ ご ふん です</t>
+  </si>
+  <si>
+    <t>わたし わ まいあさ ろく じ に おき です</t>
+  </si>
+  <si>
+    <t>私わ 毎朝 6時 に 起き です</t>
+  </si>
+  <si>
+    <t>我每天早上6點起床</t>
+  </si>
+  <si>
+    <t>わたし わ きのう べんきょう しました</t>
+  </si>
+  <si>
+    <t>私わ 昨日 勉強 しました</t>
+  </si>
+  <si>
+    <t>我昨天在用功讀書</t>
+  </si>
+  <si>
+    <t>いま なん じ ですか</t>
+  </si>
+  <si>
+    <t>今何時ですか</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 現在幾點了</t>
+  </si>
+  <si>
+    <t>にじ じゅうぷん です</t>
+  </si>
+  <si>
+    <t>2時10分です</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 現在2點10分</t>
+  </si>
+  <si>
+    <t>ニューヨーク は いま なん じ ですか。</t>
+  </si>
+  <si>
+    <t>ニューヨーク は 今何時 ですか。</t>
+  </si>
+  <si>
+    <t>紐約現在幾點了</t>
+  </si>
+  <si>
+    <t>ご ぜん れろ じ じゅう ぷん です。</t>
+  </si>
+  <si>
+    <t>午前０時１０分です。</t>
+  </si>
+  <si>
+    <t>凌晨(早上)0點10分</t>
+  </si>
+  <si>
+    <t>やす みは なんようび ですか。</t>
+  </si>
+  <si>
+    <t>どようび と にちようび です。</t>
+  </si>
+  <si>
+    <t>土曜日 と 日曜日です。</t>
+  </si>
+  <si>
+    <t>星期六和星期天放價</t>
+  </si>
+  <si>
+    <t>アップル ぎんこう は なんじ から なんじ まで ですか。</t>
+  </si>
+  <si>
+    <t>アップル 銀行 は 何時から 何時まで ですか。</t>
+  </si>
+  <si>
+    <t>蘋果銀行營業時間是幾點到幾點？</t>
+  </si>
+  <si>
+    <t>きゅう じ から さん じ まで です。</t>
+  </si>
+  <si>
+    <t>９時から ３時まで です。</t>
+  </si>
+  <si>
+    <t>早上 9 點到下午 3 點</t>
+  </si>
+  <si>
+    <t>まいばん なんじ ねますか。</t>
+  </si>
+  <si>
+    <t>毎晩 何時 寝ますか。</t>
+  </si>
+  <si>
+    <t>晚上都幾點睡覺</t>
+  </si>
+  <si>
+    <t>じゅういち じ に ねます。</t>
+  </si>
+  <si>
+    <t>11時 に 寝ます。</t>
+  </si>
+  <si>
+    <t>11 點就寢</t>
+  </si>
+  <si>
+    <t>まいにち なんじ から なんじ まで べんきょう しますか。</t>
+  </si>
+  <si>
+    <t>毎日 何時から 何時まで 勉強 しますか。</t>
+  </si>
+  <si>
+    <t>每天都幾點到幾點讀書(上學)</t>
+  </si>
+  <si>
+    <t>あさ きゅう じ から ごご さん じ まで べんきょう します</t>
+  </si>
+  <si>
+    <t>朝９時から 午後３時じまで 勉強 します</t>
+  </si>
+  <si>
+    <t>早上 9 點到下午 3 點讀書(上學)</t>
+  </si>
+  <si>
+    <t>どようび はたらき ますか。</t>
+  </si>
+  <si>
+    <t>土曜日 働き ますか。</t>
+  </si>
+  <si>
+    <t>星期六要工作嗎？</t>
+  </si>
+  <si>
+    <t>いいえ、はたらき ません。</t>
+  </si>
+  <si>
+    <t>いいえ、働き ません。</t>
+  </si>
+  <si>
+    <t>星期六不用工作</t>
+  </si>
+  <si>
+    <t>きのう べんきょう しましたか。</t>
+  </si>
+  <si>
+    <t>昨日 勉強しましたか。</t>
+  </si>
+  <si>
+    <t>昨天有用功讀書嗎</t>
+  </si>
+  <si>
+    <t>いいえ、べんきょう しませんでした。</t>
+  </si>
+  <si>
+    <t>いいえ、勉強しませんでした。</t>
+  </si>
+  <si>
+    <t>昨天沒有用功。</t>
+  </si>
+  <si>
+    <t>休みは 何曜日 ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 那一天放假（是休息日）？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今4時5分 です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在是四點五分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第5課文型</t>
+  </si>
+  <si>
+    <t>いきます かえります きました</t>
+  </si>
+  <si>
+    <t>行きます 帰ります 来ました</t>
+  </si>
+  <si>
+    <t>去某地 回(家) 來(這裡)</t>
+  </si>
+  <si>
+    <t>わたし は きょうと へ いきます</t>
+  </si>
+  <si>
+    <t>私 は 京都 へ 行きます</t>
+  </si>
+  <si>
+    <t>我去京都</t>
+  </si>
+  <si>
+    <t>A は 交通工具 で 地點(場所) へ 帰(かえ)ります(行(い)きます)（来(き)ました）</t>
+  </si>
+  <si>
+    <t>わたし は タクシー で いえ へ かえります。</t>
+  </si>
+  <si>
+    <t>私は タクシー で 家 へ 帰ります。</t>
+  </si>
+  <si>
+    <t>我搭計程車回家</t>
+  </si>
+  <si>
+    <t>わたし は かぞく と にほん へ きました。</t>
+  </si>
+  <si>
+    <t>私 は 家族 と 日本 へ 来ました。</t>
+  </si>
+  <si>
+    <t>我和家人一起來到日本(過去式)</t>
+  </si>
+  <si>
+    <t>A は 地點(場所) へ行(い)きます(帰(かえ)ります)（来(き)ました）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去、來、回去某地點用 へ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去、來、回去某地點的交通工具用 で</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -986,10 +1217,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1289,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1300,6 +1527,9 @@
     <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.08984375" customWidth="1"/>
+    <col min="5" max="5" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1905,492 +2135,771 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>247</v>
+      </c>
+      <c r="B67" t="s">
+        <v>302</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>271</v>
+      </c>
+      <c r="C76" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>298</v>
+      </c>
+      <c r="C85" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>246</v>
-      </c>
-      <c r="B88" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>256</v>
-      </c>
-      <c r="B93" t="s">
-        <v>257</v>
-      </c>
-      <c r="C93" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>184</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
-      </c>
-      <c r="C103" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>329</v>
+      </c>
+      <c r="B119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>331</v>
+      </c>
+      <c r="B120" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>333</v>
+      </c>
+      <c r="B121" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>337</v>
+      </c>
+      <c r="B125" t="s">
+        <v>338</v>
+      </c>
+      <c r="C125" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>339</v>
+      </c>
+      <c r="B126" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>342</v>
+      </c>
+      <c r="B128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>344</v>
+      </c>
+      <c r="B129" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>346</v>
+      </c>
+      <c r="B130" t="s">
+        <v>347</v>
+      </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>348</v>
+      </c>
+      <c r="B131" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>350</v>
+      </c>
+      <c r="B132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A628C-B64F-45EE-9D6C-D28AF355A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9B4A628C-B64F-45EE-9D6C-D28AF355A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E24B46E8-13EA-4154-8D35-73AA88D73A37}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="379">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1033,9 +1033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>いく、 いきます、 、 いかない</t>
-  </si>
-  <si>
     <t>行く、 行きます、 行かない</t>
   </si>
   <si>
@@ -1145,6 +1142,75 @@
   </si>
   <si>
     <t>散歩しる、 散歩します、 さんぽしない</t>
+  </si>
+  <si>
+    <t>いく、 いきます、 いかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第18課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミラーさんは かんじ を よむ ことが できます</t>
+  </si>
+  <si>
+    <t>わたしの しゅみ は えいが を みる ことです</t>
+  </si>
+  <si>
+    <t>わたしの 趣味は 映画を 見る ことです</t>
+  </si>
+  <si>
+    <t>我的興趣是看電影</t>
+  </si>
+  <si>
+    <t>ねる まえに、にっき を かきます</t>
+  </si>
+  <si>
+    <t>我在睡前寫日記裡</t>
+  </si>
+  <si>
+    <t>寝る まえに、日記を 書きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミラーさんは 漢字を 読む ことが できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米勒會讀漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スキーが できますか</t>
+  </si>
+  <si>
+    <t>你會滑雪嗎？</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
+  </si>
+  <si>
+    <t>……我會，但我滑得不太好。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコンを つかう ことが できますか。</t>
+  </si>
+  <si>
+    <t>瑪麗亞會用電腦嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、できません。</t>
+  </si>
+  <si>
+    <t>……不會。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコン を 使う ことが できますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1516,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2662,243 +2728,319 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>325</v>
-      </c>
-      <c r="B117" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="B119" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C119" t="s">
-        <v>227</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>331</v>
-      </c>
-      <c r="B120" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>333</v>
-      </c>
-      <c r="B121" t="s">
-        <v>334</v>
-      </c>
-      <c r="C121" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>231</v>
+        <v>358</v>
+      </c>
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B126" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>341</v>
+        <v>328</v>
+      </c>
+      <c r="B127" t="s">
+        <v>329</v>
+      </c>
+      <c r="C127" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B128" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B130" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>348</v>
-      </c>
-      <c r="B131" t="s">
-        <v>349</v>
-      </c>
-      <c r="C131" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>233</v>
+      </c>
+      <c r="C132" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>336</v>
+      </c>
+      <c r="B133" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B136" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C136" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
+        <v>343</v>
+      </c>
+      <c r="B137" t="s">
+        <v>344</v>
+      </c>
+      <c r="C137" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>345</v>
+      </c>
+      <c r="B138" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" t="s">
+        <v>348</v>
+      </c>
+      <c r="C139" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" t="s">
+        <v>352</v>
+      </c>
+      <c r="C142" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>356</v>
+      </c>
+      <c r="B145" t="s">
         <v>357</v>
       </c>
-      <c r="B137" t="s">
-        <v>358</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="C145" t="s">
         <v>244</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\365\OneDrive - 廣達國際機械有限公司\Fly\日語\日語練習網站\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9B4A628C-B64F-45EE-9D6C-D28AF355A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E24B46E8-13EA-4154-8D35-73AA88D73A37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1A087-4ECF-42ED-9B0D-C2C0236772B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="358">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -738,21 +738,45 @@
     <t>去...哪裡</t>
   </si>
   <si>
+    <t>いそぐ いそぎます いそがない</t>
+  </si>
+  <si>
     <t>趕快</t>
   </si>
   <si>
     <t>等一下</t>
   </si>
   <si>
+    <t>すう すいます すわない</t>
+  </si>
+  <si>
+    <t>はなす はなします はなさない</t>
+  </si>
+  <si>
     <t>說話</t>
   </si>
   <si>
+    <t>よむ よみます よまない</t>
+  </si>
+  <si>
+    <t>読む 読みます 読まない</t>
+  </si>
+  <si>
     <t>閱讀</t>
   </si>
   <si>
+    <t>のむ のみます のまない</t>
+  </si>
+  <si>
+    <t>飲む 飲みます 飲まない</t>
+  </si>
+  <si>
     <t>喝、吃藥</t>
   </si>
   <si>
+    <t>かえる かえります かえらない 帰る 帰ります 帰らない</t>
+  </si>
+  <si>
     <t>回(家)</t>
   </si>
   <si>
@@ -768,39 +792,126 @@
     <t>X + ない</t>
   </si>
   <si>
+    <t>たべる たべます たべいい</t>
+  </si>
+  <si>
+    <t>食べる 食べます 食べいい</t>
+  </si>
+  <si>
     <t>吃(東西)</t>
   </si>
   <si>
+    <t>いれる いれます いれたい</t>
+  </si>
+  <si>
+    <t>入れる 入れます 入れたい</t>
+  </si>
+  <si>
     <t>放進去</t>
   </si>
   <si>
+    <t>いる います いない</t>
+  </si>
+  <si>
+    <t>おきる おきます おきない</t>
+  </si>
+  <si>
+    <t>起きる 起きます 起きない</t>
+  </si>
+  <si>
     <t>起床 起來</t>
   </si>
   <si>
+    <t>あびる あびます あびない</t>
+  </si>
+  <si>
+    <t>浴びる 浴びます 浴びない</t>
+  </si>
+  <si>
     <t>洗澡</t>
   </si>
   <si>
+    <t>みる みます みない</t>
+  </si>
+  <si>
+    <t>見る 見ます 見ない</t>
+  </si>
+  <si>
     <t>看</t>
   </si>
   <si>
+    <t>かりる かります かりない</t>
+  </si>
+  <si>
+    <t>借りる 借ります 借りない</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 借出</t>
   </si>
   <si>
+    <t>おりる おります おりない</t>
+  </si>
+  <si>
+    <t>降りる 降ります 降りない</t>
+  </si>
+  <si>
     <t>*ない形 變化 III</t>
   </si>
   <si>
+    <t>きる きます こない</t>
+  </si>
+  <si>
+    <t>来る 来ます 来ない</t>
+  </si>
+  <si>
     <t>來(地方)</t>
   </si>
   <si>
+    <t>しる します しない</t>
+  </si>
+  <si>
+    <t>しんぱいしる しんぱいします しんぱいしない</t>
+  </si>
+  <si>
+    <t>心配しる 心配します 心配しない</t>
+  </si>
+  <si>
     <t>擔心</t>
   </si>
   <si>
+    <t>さんぽしる さんぽします さんぽしない</t>
+  </si>
+  <si>
+    <t>散歩しる 散歩します さんぽしない</t>
+  </si>
+  <si>
     <t>散步</t>
   </si>
   <si>
+    <t>いく いきます いかない</t>
+  </si>
+  <si>
+    <t>行く 行きます 行かない</t>
+  </si>
+  <si>
+    <t>急ぐ 急ぎます 急がない</t>
+  </si>
+  <si>
+    <t>まつ まちます またない</t>
+  </si>
+  <si>
+    <t>待つ 待ちます 待たない</t>
+  </si>
+  <si>
+    <t>吸う 吸います 吸わない</t>
+  </si>
+  <si>
     <t>吸(菸)(い &gt;&gt; わ)</t>
   </si>
   <si>
+    <t>話す 話します 話さない</t>
+  </si>
+  <si>
     <t>*第4課文型</t>
   </si>
   <si>
@@ -1030,186 +1141,6 @@
   </si>
   <si>
     <t>去、來、回去某地點的交通工具用 で</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行く、 行きます、 行かない</t>
-  </si>
-  <si>
-    <t>いそぐ、  いそぎます、 いそがない</t>
-  </si>
-  <si>
-    <t>急ぐ、 急ぎます、 急がない</t>
-  </si>
-  <si>
-    <t>まつ、 まちます、 またない</t>
-  </si>
-  <si>
-    <t>待つ、 待ちます、 待たない</t>
-  </si>
-  <si>
-    <t>すう、 すいます、 すわない</t>
-  </si>
-  <si>
-    <t>吸う、 吸います、 吸わない</t>
-  </si>
-  <si>
-    <t>はなす、 はなします、 はなさない</t>
-  </si>
-  <si>
-    <t>話す、 話します、 話さない</t>
-  </si>
-  <si>
-    <t>よむ、 よみます、 よまない</t>
-  </si>
-  <si>
-    <t>読む、 読みます、 読まない</t>
-  </si>
-  <si>
-    <t>のむ、 のみます、 のまない</t>
-  </si>
-  <si>
-    <t>飲む、 飲みます、 飲まない</t>
-  </si>
-  <si>
-    <t>かえる、 かえります、 かえらない</t>
-  </si>
-  <si>
-    <t>帰る、 帰ります、 帰らない</t>
-  </si>
-  <si>
-    <t>たべる、 たべます、 たべいい</t>
-  </si>
-  <si>
-    <t>食べる、 食べます、 食べいい</t>
-  </si>
-  <si>
-    <t>いれる、 いれます、 いれたい</t>
-  </si>
-  <si>
-    <t>入れる、 入れます、 入れたい</t>
-  </si>
-  <si>
-    <t>いる、 います、 いない</t>
-  </si>
-  <si>
-    <t>おきる、 おきます、 おきない</t>
-  </si>
-  <si>
-    <t>起きる、 起きます、 起きない</t>
-  </si>
-  <si>
-    <t>あびる、 あびます、 あびない</t>
-  </si>
-  <si>
-    <t>浴びる、 浴びます、 浴びない</t>
-  </si>
-  <si>
-    <t>みる、 みます、 みない</t>
-  </si>
-  <si>
-    <t>見る、 見ます、 見ない</t>
-  </si>
-  <si>
-    <t>かりる、 かります、 かりない</t>
-  </si>
-  <si>
-    <t>借りる、 借ります、 借りない</t>
-  </si>
-  <si>
-    <t>おりる、 おります、 おりない</t>
-  </si>
-  <si>
-    <t>降りる、 降ります、 降りない</t>
-  </si>
-  <si>
-    <t>きる、 きます、 こない</t>
-  </si>
-  <si>
-    <t>来る、 来ます、 来ない</t>
-  </si>
-  <si>
-    <t>しる、 します、 しない</t>
-  </si>
-  <si>
-    <t>しんぱいしる、 しんぱいします、 しんぱいしない</t>
-  </si>
-  <si>
-    <t>心配しる、 心配します、 心配しない</t>
-  </si>
-  <si>
-    <t>さんぽしる、 さんぽします、 さんぽしない</t>
-  </si>
-  <si>
-    <t>散歩しる、 散歩します、 さんぽしない</t>
-  </si>
-  <si>
-    <t>いく、 いきます、 いかない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*第18課文型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ミラーさんは かんじ を よむ ことが できます</t>
-  </si>
-  <si>
-    <t>わたしの しゅみ は えいが を みる ことです</t>
-  </si>
-  <si>
-    <t>わたしの 趣味は 映画を 見る ことです</t>
-  </si>
-  <si>
-    <t>我的興趣是看電影</t>
-  </si>
-  <si>
-    <t>ねる まえに、にっき を かきます</t>
-  </si>
-  <si>
-    <t>我在睡前寫日記裡</t>
-  </si>
-  <si>
-    <t>寝る まえに、日記を 書きます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ミラーさんは 漢字を 読む ことが できます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米勒會讀漢字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>スキーが できますか</t>
-  </si>
-  <si>
-    <t>你會滑雪嗎？</t>
-  </si>
-  <si>
-    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
-  </si>
-  <si>
-    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
-  </si>
-  <si>
-    <t>……我會，但我滑得不太好。</t>
-  </si>
-  <si>
-    <t>マリアさんは パソコンを つかう ことが できますか。</t>
-  </si>
-  <si>
-    <t>瑪麗亞會用電腦嗎？</t>
-  </si>
-  <si>
-    <t>…いいえ、できません。</t>
-  </si>
-  <si>
-    <t>……不會。</t>
-  </si>
-  <si>
-    <t>マリアさんは パソコン を 使う ことが できますか。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,9 +1217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1326,7 +1257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1432,7 +1363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1574,7 +1505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1582,23 +1513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.08984375" customWidth="1"/>
-    <col min="5" max="5" width="62.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1609,12 +1540,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1625,7 +1556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1633,7 +1564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1644,7 +1575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1655,7 +1586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1686,7 +1617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1719,7 +1650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1763,7 +1694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1774,7 +1705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1785,7 +1716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1796,7 +1727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1807,12 +1738,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1823,7 +1754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1765,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1856,7 +1787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1875,7 +1806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1883,7 +1814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1891,7 +1822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1902,7 +1833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1913,7 +1844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1924,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -1935,7 +1866,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1946,7 +1877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1957,7 +1888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -1968,7 +1899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -1979,7 +1910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -1990,7 +1921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1998,7 +1929,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2009,7 +1940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2020,7 +1951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2031,12 +1962,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2047,7 +1978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2058,7 +1989,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2066,7 +1997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2074,7 +2005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2082,7 +2013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2093,7 +2024,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -2101,7 +2032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2109,7 +2040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -2117,7 +2048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2128,7 +2059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -2139,7 +2070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -2147,7 +2078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -2158,7 +2089,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -2169,7 +2100,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -2180,7 +2111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -2188,7 +2119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -2199,7 +2130,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -2207,7 +2138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -2218,7 +2149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -2226,7 +2157,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -2237,7 +2168,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -2248,291 +2179,291 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" t="s">
         <v>302</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B68" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>251</v>
-      </c>
-      <c r="B69" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>254</v>
-      </c>
-      <c r="B70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>257</v>
-      </c>
-      <c r="B71" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" t="s">
-        <v>261</v>
-      </c>
-      <c r="C72" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>263</v>
-      </c>
-      <c r="B73" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>266</v>
-      </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -2540,7 +2471,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -2551,7 +2482,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -2559,7 +2490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -2570,7 +2501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -2581,7 +2512,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -2592,7 +2523,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -2600,7 +2531,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -2611,7 +2542,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -2622,7 +2553,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -2630,7 +2561,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>194</v>
       </c>
@@ -2641,7 +2572,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -2652,7 +2583,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -2663,7 +2594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -2674,7 +2605,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -2685,7 +2616,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -2696,7 +2627,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -2707,7 +2638,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -2718,7 +2649,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -2726,322 +2657,243 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="B118" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="C118" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>374</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="C119" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>376</v>
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
       </c>
       <c r="C120" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
-      </c>
-      <c r="C122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>358</v>
-      </c>
-      <c r="B123" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="C125" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>328</v>
-      </c>
-      <c r="B127" t="s">
-        <v>329</v>
-      </c>
-      <c r="C127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
-      </c>
-      <c r="C132" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>336</v>
-      </c>
-      <c r="B133" t="s">
-        <v>337</v>
-      </c>
-      <c r="C133" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>345</v>
-      </c>
-      <c r="B138" t="s">
-        <v>346</v>
-      </c>
-      <c r="C138" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>347</v>
-      </c>
-      <c r="B139" t="s">
-        <v>348</v>
-      </c>
-      <c r="C139" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>349</v>
-      </c>
-      <c r="B140" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>351</v>
-      </c>
-      <c r="B142" t="s">
-        <v>352</v>
-      </c>
-      <c r="C142" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>354</v>
-      </c>
-      <c r="B144" t="s">
-        <v>355</v>
-      </c>
-      <c r="C144" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>356</v>
-      </c>
-      <c r="B145" t="s">
-        <v>357</v>
-      </c>
-      <c r="C145" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\365\OneDrive - 廣達國際機械有限公司\Fly\日語\日語練習網站\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1A087-4ECF-42ED-9B0D-C2C0236772B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B6E1A087-4ECF-42ED-9B0D-C2C0236772B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF43D8D-5C50-4529-ABC2-54945896DD45}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-15456" yWindow="-1248" windowWidth="15552" windowHeight="16656" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="378">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1142,6 +1142,71 @@
   <si>
     <t>去、來、回去某地點的交通工具用 で</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第18課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミラーさんは かんじ を よむ ことが できます</t>
+  </si>
+  <si>
+    <t>ミラーさんは 漢字を 読む ことが できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米勒會讀漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わたしの しゅみ は えいが を みる ことです</t>
+  </si>
+  <si>
+    <t>わたしの 趣味は 映画を 見る ことです</t>
+  </si>
+  <si>
+    <t>我的興趣是看電影</t>
+  </si>
+  <si>
+    <t>ねる まえに、にっき を かきます</t>
+  </si>
+  <si>
+    <t>寝る まえに、日記を 書きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在睡前寫日記裡</t>
+  </si>
+  <si>
+    <t>スキーが できますか</t>
+  </si>
+  <si>
+    <t>你會滑雪嗎？</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
+  </si>
+  <si>
+    <t>……我會，但我滑得不太好。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコンを つかう ことが できますか。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコン を 使う ことが できますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑪麗亞會用電腦嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、できません。</t>
+  </si>
+  <si>
+    <t>……不會。</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2659,240 +2724,316 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>278</v>
-      </c>
-      <c r="B117" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="C118" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>231</v>
-      </c>
-      <c r="B120" t="s">
-        <v>232</v>
+        <v>376</v>
       </c>
       <c r="C120" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>234</v>
-      </c>
-      <c r="B121" t="s">
-        <v>235</v>
-      </c>
-      <c r="C121" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>222</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>275</v>
+      </c>
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>229</v>
+      </c>
+      <c r="B127" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C128" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
-      </c>
-      <c r="C130" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>241</v>
+      </c>
+      <c r="C132" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>243</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>262</v>
+      </c>
+      <c r="B140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>272</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B145" t="s">
         <v>273</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C145" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B6E1A087-4ECF-42ED-9B0D-C2C0236772B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF43D8D-5C50-4529-ABC2-54945896DD45}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD734488-D07E-4AB0-BC56-7C8F83026A4E}"/>
   <bookViews>
-    <workbookView xWindow="-15456" yWindow="-1248" windowWidth="15552" windowHeight="16656" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="431">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1148,65 +1148,248 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ミラーさんは 漢字を 読む ことが できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米勒會讀漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わたしの しゅみ は えいが を みる ことです</t>
+  </si>
+  <si>
+    <t>わたしの 趣味は 映画を 見る ことです</t>
+  </si>
+  <si>
+    <t>我的興趣是看電影</t>
+  </si>
+  <si>
+    <t>ねる まえに、にっき を かきます</t>
+  </si>
+  <si>
+    <t>寝る まえに、日記を 書きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在睡前寫日記裡</t>
+  </si>
+  <si>
+    <t>スキーが できますか</t>
+  </si>
+  <si>
+    <t>你會滑雪嗎？</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
+  </si>
+  <si>
+    <t>……我會，但我滑得不太好。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコンを つかう ことが できますか。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコン を 使う ことが できますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑪麗亞會用電腦嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、できません。</t>
+  </si>
+  <si>
+    <t>……不會。</t>
+  </si>
+  <si>
     <t>ミラーさんは かんじ を よむ ことが できます</t>
-  </si>
-  <si>
-    <t>ミラーさんは 漢字を 読む ことが できます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米勒會讀漢字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>わたしの しゅみ は えいが を みる ことです</t>
-  </si>
-  <si>
-    <t>わたしの 趣味は 映画を 見る ことです</t>
-  </si>
-  <si>
-    <t>我的興趣是看電影</t>
-  </si>
-  <si>
-    <t>ねる まえに、にっき を かきます</t>
-  </si>
-  <si>
-    <t>寝る まえに、日記を 書きます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在睡前寫日記裡</t>
-  </si>
-  <si>
-    <t>スキーが できますか</t>
-  </si>
-  <si>
-    <t>你會滑雪嗎？</t>
-  </si>
-  <si>
-    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
-  </si>
-  <si>
-    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
-  </si>
-  <si>
-    <t>……我會，但我滑得不太好。</t>
-  </si>
-  <si>
-    <t>マリアさんは パソコンを つかう ことが できますか。</t>
-  </si>
-  <si>
-    <t>マリアさんは パソコン を 使う ことが できますか。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑪麗亞會用電腦嗎？</t>
-  </si>
-  <si>
-    <t>…いいえ、できません。</t>
-  </si>
-  <si>
-    <t>……不會。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(人)會做~ / (某)可以~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおさかじょう は なんじまで けんがく が できますか</t>
+  </si>
+  <si>
+    <t>大阪城は 何時まで 見学が できますか</t>
+  </si>
+  <si>
+    <t>大阪城的參觀到什麼時候為止</t>
+  </si>
+  <si>
+    <t>5じまでです</t>
+  </si>
+  <si>
+    <t>5時までです</t>
+  </si>
+  <si>
+    <t>到五點為止</t>
+  </si>
+  <si>
+    <t>カードで はらう ことが できますか</t>
+  </si>
+  <si>
+    <t>カードで 払う ことが できますか 可以用信用卡結帳嗎</t>
+  </si>
+  <si>
+    <t>しゅみは なんですか</t>
+  </si>
+  <si>
+    <t>趣味は 何ですか</t>
+  </si>
+  <si>
+    <t>你的興趣是什麼</t>
+  </si>
+  <si>
+    <t>ふるい とけいを あつめる ことです</t>
+  </si>
+  <si>
+    <t>古い 時計を 集める ことです</t>
+  </si>
+  <si>
+    <t>蒐集就的手錶</t>
+  </si>
+  <si>
+    <t>にほんの こどもは がっこうに はいる まえに、ひらがなを おぼえなければ なりませんか</t>
+  </si>
+  <si>
+    <t>いいえ、おぼえなくても いいです</t>
+  </si>
+  <si>
+    <t>いいえ、覚えなくても いいです</t>
+  </si>
+  <si>
+    <t>喔，不需要</t>
+  </si>
+  <si>
+    <t>しょくじの まえに、この くすり を のんで ください</t>
+  </si>
+  <si>
+    <t>食事の まえに、この 薬を 飲んで ください</t>
+  </si>
+  <si>
+    <t>吃飯前請先吃藥</t>
+  </si>
+  <si>
+    <t>はい、わかりました</t>
+  </si>
+  <si>
+    <t>好的，遵命</t>
+  </si>
+  <si>
+    <t>いつ けっこんしましたか</t>
+  </si>
+  <si>
+    <t>いつ 結婚しましたか</t>
+  </si>
+  <si>
+    <t>你什麼時候結婚？</t>
+  </si>
+  <si>
+    <t>3ねんまえに、けっ こんしました</t>
+  </si>
+  <si>
+    <t>3年まえに、結婚しました</t>
+  </si>
+  <si>
+    <t>結婚三年了</t>
+  </si>
+  <si>
+    <t>日本小孩子在入學前要先學會平假名嗎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，要用現金結帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみませんが、げんきんで おねがいします</t>
+  </si>
+  <si>
+    <t>すみませんが、現金で お願いします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本の 子どもは 学校に 入る まえに、ひらがなを 覚えなければ なりませんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V+こと: 動詞名詞化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここで コピー ができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡可以影印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A-名詞 + が できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B-辭書型動詞 + こと + が できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. A 趣味は 辭書型動詞+こと です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 的興趣是 ～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在做A 之前先B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝る まえに、本を読みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねるまえに、ほんをよみます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡覺前先看書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 辭書型動詞A+まえ(前)に, B~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(vs A~ てから、B~ = 先做A, 再做 B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本を読んでから、寝ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほんをよんでから、ねます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先看書然後去睡覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車の運転ができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるまのうんてんができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1282,9 +1465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1322,7 +1505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1428,7 +1611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1570,7 +1753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1578,23 +1761,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="5" max="5" width="62.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1605,12 +1789,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1621,7 +1805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1629,7 +1813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1651,7 +1835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +1866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1715,7 +1899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1726,7 +1910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1737,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1748,7 +1932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1759,7 +1943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +1976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1803,12 +1987,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1819,7 +2003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +2014,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +2025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1852,7 +2036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +2047,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1871,7 +2055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +2063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1887,7 +2071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1898,7 +2082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1909,7 +2093,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1920,7 +2104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -1931,7 +2115,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1942,7 +2126,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1953,7 +2137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -1964,7 +2148,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -1975,7 +2159,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -1986,7 +2170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1994,7 +2178,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2005,7 +2189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2016,7 +2200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2027,12 +2211,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2043,7 +2227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2054,7 +2238,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2062,7 +2246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2070,7 +2254,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2078,7 +2262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2089,7 +2273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -2097,7 +2281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2105,7 +2289,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -2113,7 +2297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2124,7 +2308,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -2135,7 +2319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -2143,7 +2327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -2154,7 +2338,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -2165,7 +2349,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -2176,7 +2360,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -2184,7 +2368,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -2195,7 +2379,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -2203,7 +2387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -2214,7 +2398,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -2222,7 +2406,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -2233,7 +2417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -2244,12 +2428,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -2260,7 +2444,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -2271,7 +2455,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -2282,7 +2466,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>291</v>
       </c>
@@ -2293,7 +2477,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>294</v>
       </c>
@@ -2304,7 +2488,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>297</v>
       </c>
@@ -2315,7 +2499,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -2326,7 +2510,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -2337,7 +2521,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -2348,7 +2532,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>307</v>
       </c>
@@ -2359,7 +2543,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -2370,7 +2554,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>313</v>
       </c>
@@ -2381,7 +2565,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>316</v>
       </c>
@@ -2392,7 +2576,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>319</v>
       </c>
@@ -2403,7 +2587,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>322</v>
       </c>
@@ -2414,7 +2598,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -2425,7 +2609,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>328</v>
       </c>
@@ -2436,7 +2620,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -2447,7 +2631,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>334</v>
       </c>
@@ -2458,12 +2642,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -2474,7 +2658,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>355</v>
       </c>
@@ -2482,7 +2666,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>345</v>
       </c>
@@ -2493,7 +2677,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>348</v>
       </c>
@@ -2501,7 +2685,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>349</v>
       </c>
@@ -2512,7 +2696,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>352</v>
       </c>
@@ -2523,12 +2707,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -2536,7 +2720,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -2547,7 +2731,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -2555,7 +2739,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -2566,7 +2750,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -2577,7 +2761,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -2588,7 +2772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -2596,7 +2780,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -2607,7 +2791,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -2618,7 +2802,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -2626,7 +2810,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>194</v>
       </c>
@@ -2637,7 +2821,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -2648,7 +2832,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -2659,7 +2843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -2670,7 +2854,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -2681,7 +2865,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -2692,7 +2876,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -2703,7 +2887,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -2714,7 +2898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -2722,318 +2906,520 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>417</v>
+      </c>
+      <c r="B115" t="s">
+        <v>413</v>
+      </c>
+      <c r="C115" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>377</v>
+      </c>
+      <c r="B117" t="s">
         <v>359</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C117" t="s">
         <v>360</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>418</v>
+      </c>
+      <c r="C118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B119" t="s">
         <v>362</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C119" t="s">
         <v>363</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B120" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B121" t="s">
         <v>365</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C121" t="s">
         <v>366</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" t="s">
+        <v>421</v>
+      </c>
+      <c r="C122" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>427</v>
+      </c>
+      <c r="B123" t="s">
+        <v>426</v>
+      </c>
+      <c r="C123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="C125" t="s">
         <v>368</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B126" t="s">
         <v>370</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C126" t="s">
         <v>371</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B127" t="s">
         <v>373</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C127" t="s">
         <v>374</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="C128" t="s">
         <v>376</v>
       </c>
-      <c r="C120" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>387</v>
+      </c>
+      <c r="B133" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>390</v>
+      </c>
+      <c r="B134" t="s">
+        <v>391</v>
+      </c>
+      <c r="C134" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>394</v>
+      </c>
+      <c r="B136" t="s">
+        <v>395</v>
+      </c>
+      <c r="C136" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>397</v>
+      </c>
+      <c r="B137" t="s">
+        <v>398</v>
+      </c>
+      <c r="C137" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>400</v>
+      </c>
+      <c r="C138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>405</v>
+      </c>
+      <c r="B140" t="s">
+        <v>406</v>
+      </c>
+      <c r="C140" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
         <v>221</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B142" t="s">
         <v>222</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C142" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
         <v>275</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B143" t="s">
         <v>276</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C143" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
         <v>225</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B144" t="s">
         <v>277</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C144" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
         <v>278</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B145" t="s">
         <v>279</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C145" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
         <v>228</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B146" t="s">
         <v>280</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C146" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
         <v>229</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B147" t="s">
         <v>282</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C147" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
         <v>231</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B148" t="s">
         <v>232</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C148" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
         <v>234</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B149" t="s">
         <v>235</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C149" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
         <v>237</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B150" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
         <v>240</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B152" t="s">
         <v>241</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C152" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
         <v>243</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B153" t="s">
         <v>244</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C153" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
         <v>246</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B154" t="s">
         <v>247</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C154" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
         <v>250</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B156" t="s">
         <v>251</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C156" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
         <v>253</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B157" t="s">
         <v>254</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C157" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
         <v>256</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B158" t="s">
         <v>257</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C158" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
         <v>259</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B159" t="s">
         <v>260</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C159" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
         <v>262</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B160" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
         <v>265</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B162" t="s">
         <v>266</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C162" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
         <v>269</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B164" t="s">
         <v>270</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C164" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
         <v>272</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B165" t="s">
         <v>273</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C165" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD734488-D07E-4AB0-BC56-7C8F83026A4E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671B52F0-1260-44E3-8AED-26558AE6AACC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="438">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1156,239 +1156,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我的興趣是看電影</t>
+  </si>
+  <si>
+    <t>ねる まえに、にっき を かきます</t>
+  </si>
+  <si>
+    <t>寝る まえに、日記を 書きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スキーが できますか</t>
+  </si>
+  <si>
+    <t>你會滑雪嗎？</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
+  </si>
+  <si>
+    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
+  </si>
+  <si>
+    <t>……我會，但我滑得不太好。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコンを つかう ことが できますか。</t>
+  </si>
+  <si>
+    <t>マリアさんは パソコン を 使う ことが できますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑪麗亞會用電腦嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、できません。</t>
+  </si>
+  <si>
+    <t>……不會。</t>
+  </si>
+  <si>
+    <t>ミラーさんは かんじ を よむ ことが できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(人)會做~ / (某)可以~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおさかじょう は なんじまで けんがく が できますか</t>
+  </si>
+  <si>
+    <t>大阪城は 何時まで 見学が できますか</t>
+  </si>
+  <si>
+    <t>大阪城的參觀到什麼時候為止</t>
+  </si>
+  <si>
+    <t>5じまでです</t>
+  </si>
+  <si>
+    <t>5時までです</t>
+  </si>
+  <si>
+    <t>到五點為止</t>
+  </si>
+  <si>
+    <t>カードで はらう ことが できますか</t>
+  </si>
+  <si>
+    <t>カードで 払う ことが できますか 可以用信用卡結帳嗎</t>
+  </si>
+  <si>
+    <t>しゅみは なんですか</t>
+  </si>
+  <si>
+    <t>趣味は 何ですか</t>
+  </si>
+  <si>
+    <t>你的興趣是什麼</t>
+  </si>
+  <si>
+    <t>ふるい とけいを あつめる ことです</t>
+  </si>
+  <si>
+    <t>古い 時計を 集める ことです</t>
+  </si>
+  <si>
+    <t>蒐集就的手錶</t>
+  </si>
+  <si>
+    <t>にほんの こどもは がっこうに はいる まえに、ひらがなを おぼえなければ なりませんか</t>
+  </si>
+  <si>
+    <t>いいえ、おぼえなくても いいです</t>
+  </si>
+  <si>
+    <t>いいえ、覚えなくても いいです</t>
+  </si>
+  <si>
+    <t>喔，不需要</t>
+  </si>
+  <si>
+    <t>しょくじの まえに、この くすり を のんで ください</t>
+  </si>
+  <si>
+    <t>食事の まえに、この 薬を 飲んで ください</t>
+  </si>
+  <si>
+    <t>吃飯前請先吃藥</t>
+  </si>
+  <si>
+    <t>はい、わかりました</t>
+  </si>
+  <si>
+    <t>好的，遵命</t>
+  </si>
+  <si>
+    <t>いつ けっこんしましたか</t>
+  </si>
+  <si>
+    <t>いつ 結婚しましたか</t>
+  </si>
+  <si>
+    <t>你什麼時候結婚？</t>
+  </si>
+  <si>
+    <t>3ねんまえに、けっ こんしました</t>
+  </si>
+  <si>
+    <t>3年まえに、結婚しました</t>
+  </si>
+  <si>
+    <t>結婚三年了</t>
+  </si>
+  <si>
+    <t>日本小孩子在入學前要先學會平假名嗎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，要用現金結帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみませんが、げんきんで おねがいします</t>
+  </si>
+  <si>
+    <t>すみませんが、現金で お願いします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本の 子どもは 学校に 入る まえに、ひらがなを 覚えなければ なりませんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V+こと: 動詞名詞化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここで コピー ができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡可以影印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A-名詞 + が できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B-辭書型動詞 + こと + が できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. A 趣味は 辭書型動詞+こと です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 的興趣是 ～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在做A 之前先B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝る まえに、本を読みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねるまえに、ほんをよみます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡覺前先看書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 辭書型動詞A+まえ(前)に, B~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(vs A~ てから、B~ = 先做A, 再做 B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本を読んでから、寝ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほんをよんでから、ねます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先看書然後去睡覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車の運転ができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるまのうんてんができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私の趣味は漫画を読むことです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私の 趣味は 映画を 見る ことです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>わたしの しゅみ は えいが を みる ことです</t>
-  </si>
-  <si>
-    <t>わたしの 趣味は 映画を 見る ことです</t>
-  </si>
-  <si>
-    <t>我的興趣是看電影</t>
-  </si>
-  <si>
-    <t>ねる まえに、にっき を かきます</t>
-  </si>
-  <si>
-    <t>寝る まえに、日記を 書きます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在睡前寫日記裡</t>
-  </si>
-  <si>
-    <t>スキーが できますか</t>
-  </si>
-  <si>
-    <t>你會滑雪嗎？</t>
-  </si>
-  <si>
-    <t>…はい、できます。 でも、あまり じょうずじゃ ありません。</t>
-  </si>
-  <si>
-    <t>…はい、できます。 でも、あまり 上手じゃ ありません。</t>
-  </si>
-  <si>
-    <t>……我會，但我滑得不太好。</t>
-  </si>
-  <si>
-    <t>マリアさんは パソコンを つかう ことが できますか。</t>
-  </si>
-  <si>
-    <t>マリアさんは パソコン を 使う ことが できますか。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑪麗亞會用電腦嗎？</t>
-  </si>
-  <si>
-    <t>…いいえ、できません。</t>
-  </si>
-  <si>
-    <t>……不會。</t>
-  </si>
-  <si>
-    <t>ミラーさんは かんじ を よむ ことが できます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(人)會做~ / (某)可以~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>おおさかじょう は なんじまで けんがく が できますか</t>
-  </si>
-  <si>
-    <t>大阪城は 何時まで 見学が できますか</t>
-  </si>
-  <si>
-    <t>大阪城的參觀到什麼時候為止</t>
-  </si>
-  <si>
-    <t>5じまでです</t>
-  </si>
-  <si>
-    <t>5時までです</t>
-  </si>
-  <si>
-    <t>到五點為止</t>
-  </si>
-  <si>
-    <t>カードで はらう ことが できますか</t>
-  </si>
-  <si>
-    <t>カードで 払う ことが できますか 可以用信用卡結帳嗎</t>
-  </si>
-  <si>
-    <t>しゅみは なんですか</t>
-  </si>
-  <si>
-    <t>趣味は 何ですか</t>
-  </si>
-  <si>
-    <t>你的興趣是什麼</t>
-  </si>
-  <si>
-    <t>ふるい とけいを あつめる ことです</t>
-  </si>
-  <si>
-    <t>古い 時計を 集める ことです</t>
-  </si>
-  <si>
-    <t>蒐集就的手錶</t>
-  </si>
-  <si>
-    <t>にほんの こどもは がっこうに はいる まえに、ひらがなを おぼえなければ なりませんか</t>
-  </si>
-  <si>
-    <t>いいえ、おぼえなくても いいです</t>
-  </si>
-  <si>
-    <t>いいえ、覚えなくても いいです</t>
-  </si>
-  <si>
-    <t>喔，不需要</t>
-  </si>
-  <si>
-    <t>しょくじの まえに、この くすり を のんで ください</t>
-  </si>
-  <si>
-    <t>食事の まえに、この 薬を 飲んで ください</t>
-  </si>
-  <si>
-    <t>吃飯前請先吃藥</t>
-  </si>
-  <si>
-    <t>はい、わかりました</t>
-  </si>
-  <si>
-    <t>好的，遵命</t>
-  </si>
-  <si>
-    <t>いつ けっこんしましたか</t>
-  </si>
-  <si>
-    <t>いつ 結婚しましたか</t>
-  </si>
-  <si>
-    <t>你什麼時候結婚？</t>
-  </si>
-  <si>
-    <t>3ねんまえに、けっ こんしました</t>
-  </si>
-  <si>
-    <t>3年まえに、結婚しました</t>
-  </si>
-  <si>
-    <t>結婚三年了</t>
-  </si>
-  <si>
-    <t>日本小孩子在入學前要先學會平假名嗎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱歉，要用現金結帳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すみませんが、げんきんで おねがいします</t>
-  </si>
-  <si>
-    <t>すみませんが、現金で お願いします</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本の 子どもは 学校に 入る まえに、ひらがなを 覚えなければ なりませんか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V+こと: 動詞名詞化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ここで コピー ができます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這裡可以影印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A-名詞 + が できます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1B-辭書型動詞 + こと + が できます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. A 趣味は 辭書型動詞+こと です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 的興趣是 ～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在做A 之前先B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寝る まえに、本を読みます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ねるまえに、ほんをよみます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡覺前先看書</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 辭書型動詞A+まえ(前)に, B~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(vs A~ てから、B~ = 先做A, 再做 B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本を読んでから、寝ます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ほんをよんでから、ねます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先看書然後去睡覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車の運転ができます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>くるまのうんてんができます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>わたしの しゅみ は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まんが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をよむことです</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的興趣是看漫畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在睡覺前寫日記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいしゃ に いく まえに ごはん を たべます</t>
+  </si>
+  <si>
+    <t>会社に 行く まえに 朝ご飯 を 食べます</t>
+  </si>
+  <si>
+    <t>去公司前先吃早餐</t>
+  </si>
+  <si>
+    <t>我會開車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1418,6 +1469,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1464,10 +1522,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1505,7 +1567,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1611,7 +1673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1753,7 +1815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1761,24 +1823,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.08984375" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="62.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1789,12 +1851,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1805,7 +1867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1813,7 +1875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1824,7 +1886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1835,7 +1897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1855,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1866,7 +1928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1921,7 +1983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1943,7 +2005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +2016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1965,7 +2027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1976,7 +2038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1987,12 +2049,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2003,7 +2065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2014,7 +2076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2025,7 +2087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2036,7 +2098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2047,7 +2109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2055,7 +2117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2063,7 +2125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2071,7 +2133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2082,7 +2144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -2093,7 +2155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2104,7 +2166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2115,7 +2177,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2126,7 +2188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2137,7 +2199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2148,7 +2210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2159,7 +2221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -2170,7 +2232,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -2178,7 +2240,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2189,7 +2251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2200,7 +2262,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2211,12 +2273,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2227,7 +2289,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2238,7 +2300,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2246,7 +2308,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2254,7 +2316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2262,7 +2324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2273,7 +2335,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -2281,7 +2343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2289,7 +2351,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -2297,7 +2359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2308,7 +2370,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -2319,7 +2381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -2327,7 +2389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -2338,7 +2400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -2349,7 +2411,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -2360,7 +2422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -2368,7 +2430,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -2379,7 +2441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -2387,7 +2449,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -2398,7 +2460,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -2406,7 +2468,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -2417,7 +2479,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -2428,12 +2490,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -2444,7 +2506,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -2455,7 +2517,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -2466,7 +2528,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>291</v>
       </c>
@@ -2477,7 +2539,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>294</v>
       </c>
@@ -2488,7 +2550,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>297</v>
       </c>
@@ -2499,7 +2561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -2510,7 +2572,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -2521,7 +2583,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -2532,7 +2594,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>307</v>
       </c>
@@ -2543,7 +2605,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -2554,7 +2616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>313</v>
       </c>
@@ -2565,7 +2627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>316</v>
       </c>
@@ -2576,7 +2638,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>319</v>
       </c>
@@ -2587,7 +2649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>322</v>
       </c>
@@ -2598,7 +2660,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -2609,7 +2671,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>328</v>
       </c>
@@ -2620,7 +2682,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -2631,7 +2693,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>334</v>
       </c>
@@ -2642,12 +2704,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -2658,7 +2720,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>355</v>
       </c>
@@ -2666,7 +2728,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>345</v>
       </c>
@@ -2677,7 +2739,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>348</v>
       </c>
@@ -2685,7 +2747,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>349</v>
       </c>
@@ -2696,7 +2758,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>352</v>
       </c>
@@ -2707,12 +2769,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -2720,7 +2782,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -2731,7 +2793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -2739,7 +2801,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -2750,7 +2812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -2761,7 +2823,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -2772,7 +2834,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -2780,7 +2842,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -2791,7 +2853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -2802,7 +2864,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -2810,7 +2872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>194</v>
       </c>
@@ -2821,7 +2883,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -2832,7 +2894,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -2843,7 +2905,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -2854,7 +2916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -2865,7 +2927,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -2876,7 +2938,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -2887,7 +2949,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -2898,7 +2960,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -2906,41 +2968,41 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C115" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B117" t="s">
         <v>359</v>
@@ -2949,477 +3011,502 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>415</v>
+      </c>
+      <c r="C118" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B119" t="s">
+        <v>429</v>
+      </c>
+      <c r="C119" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>431</v>
+      </c>
+      <c r="B120" t="s">
+        <v>428</v>
+      </c>
+      <c r="C120" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>421</v>
+      </c>
+      <c r="B121" t="s">
+        <v>422</v>
+      </c>
+      <c r="C121" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>419</v>
+      </c>
+      <c r="B123" t="s">
         <v>418</v>
       </c>
-      <c r="C118" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>361</v>
-      </c>
-      <c r="B119" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+      <c r="C123" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>424</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B124" t="s">
+        <v>423</v>
+      </c>
+      <c r="C124" t="s">
         <v>425</v>
       </c>
-      <c r="C120" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>434</v>
+      </c>
+      <c r="B125" t="s">
+        <v>435</v>
+      </c>
+      <c r="C125" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>427</v>
+      </c>
+      <c r="B126" t="s">
+        <v>426</v>
+      </c>
+      <c r="C126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>364</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C127" t="s">
         <v>365</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>422</v>
-      </c>
-      <c r="B122" t="s">
-        <v>421</v>
-      </c>
-      <c r="C122" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>427</v>
-      </c>
-      <c r="B123" t="s">
-        <v>426</v>
-      </c>
-      <c r="C123" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>430</v>
-      </c>
-      <c r="B124" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+      <c r="B128" t="s">
         <v>367</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C128" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>369</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B129" t="s">
         <v>370</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C129" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>372</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C130" t="s">
         <v>373</v>
       </c>
-      <c r="C127" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>375</v>
-      </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+      <c r="B131" t="s">
+        <v>377</v>
+      </c>
+      <c r="C131" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>379</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B132" t="s">
         <v>380</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C132" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>382</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B133" t="s">
         <v>383</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" t="s">
+        <v>408</v>
+      </c>
+      <c r="C134" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+      <c r="B135" t="s">
         <v>385</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C135" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>410</v>
-      </c>
-      <c r="B132" t="s">
-        <v>411</v>
-      </c>
-      <c r="C132" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>387</v>
+      </c>
+      <c r="B136" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>390</v>
+      </c>
+      <c r="B137" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>387</v>
-      </c>
-      <c r="B133" t="s">
-        <v>388</v>
-      </c>
-      <c r="C133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>390</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C137" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>391</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B138" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+      <c r="C138" t="s">
         <v>393</v>
       </c>
-      <c r="B135" t="s">
-        <v>412</v>
-      </c>
-      <c r="C135" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>394</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B139" t="s">
         <v>395</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C139" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>397</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C140" t="s">
         <v>398</v>
       </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+      <c r="B141" t="s">
         <v>400</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>402</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B142" t="s">
         <v>403</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C142" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>405</v>
-      </c>
-      <c r="B140" t="s">
-        <v>406</v>
-      </c>
-      <c r="C140" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>221</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
         <v>222</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>275</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B145" t="s">
         <v>276</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C145" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>225</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
         <v>277</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>278</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B147" t="s">
         <v>279</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C147" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>228</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B148" t="s">
         <v>280</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>229</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B149" t="s">
         <v>282</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C149" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>231</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B150" t="s">
         <v>232</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C150" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>234</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
         <v>235</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C151" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>237</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B152" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>240</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
         <v>241</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C154" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>243</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>244</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C155" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>246</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>247</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C156" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>250</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B158" t="s">
         <v>251</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C158" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>253</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B159" t="s">
         <v>254</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>256</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B160" t="s">
         <v>257</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>259</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B161" t="s">
         <v>260</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C161" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>262</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>265</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B164" t="s">
         <v>266</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>269</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B166" t="s">
         <v>270</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C166" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>272</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B167" t="s">
         <v>273</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C167" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671B52F0-1260-44E3-8AED-26558AE6AACC}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA4DC5A-12B5-4E3A-A0C5-50F98313CB6E}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="489">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1440,6 +1440,162 @@
   </si>
   <si>
     <t>我會開車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第19課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すもう を みた ことが あります。</t>
+  </si>
+  <si>
+    <t>相撲 を 見た ことが あります。</t>
+  </si>
+  <si>
+    <t>我看過相撲比賽。</t>
+  </si>
+  <si>
+    <t>休息日我會打網球和散步。</t>
+  </si>
+  <si>
+    <t>これから だんだん あつく なります。</t>
+  </si>
+  <si>
+    <t>これから だんだん 暑く なります。</t>
+  </si>
+  <si>
+    <t>從現在開始天氣會越來越熱。</t>
+  </si>
+  <si>
+    <t>やすみの ひ は テニスを したり、 さんぽ に いったり します。</t>
+  </si>
+  <si>
+    <t>休みの 日は テニスを したり、 散歩に 行ったり します。</t>
+  </si>
+  <si>
+    <t>ほっかいどうへ いった ことが ありますか。</t>
+  </si>
+  <si>
+    <t>北海道へ 行った ことが ありますか。</t>
+  </si>
+  <si>
+    <t>您去過北海道嗎？</t>
+  </si>
+  <si>
+    <t>…はい、いちど あります。 2ねんまえに ともだちと いきました。</t>
+  </si>
+  <si>
+    <t>…はい、一度 あります。 2年まえに 友達と 行きました。</t>
+  </si>
+  <si>
+    <t>……去過一次。兩年前我和一個朋友一起去過。</t>
+  </si>
+  <si>
+    <t>うまに のった ことが ありますか。</t>
+  </si>
+  <si>
+    <t>馬に 乗った ことが ありますか。</t>
+  </si>
+  <si>
+    <t>你騎過馬嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、いちども ありません。 ぜひ のりたいです。</t>
+  </si>
+  <si>
+    <t>…いいえ、一度も ありません。 ぜひ 乗りたいです。</t>
+  </si>
+  <si>
+    <t>……不，從來沒有。我很想騎它。</t>
+  </si>
+  <si>
+    <t>ふゆやすみは なにを しましたか。</t>
+  </si>
+  <si>
+    <t>冬休みは 何を しましたか。</t>
+  </si>
+  <si>
+    <t>你的寒假做了什麼？</t>
+  </si>
+  <si>
+    <t>…京都の お寺や 神社を 見たり、友達と パーティーを したり しました。</t>
+  </si>
+  <si>
+    <t>……我參觀了京都的寺廟和神社，也和朋友們一起聚會。</t>
+  </si>
+  <si>
+    <t>きょうとの おてらや じんじゃ みたり ともだちと パーティーを。</t>
+  </si>
+  <si>
+    <t>にほんで なにを したいですか。</t>
+  </si>
+  <si>
+    <t>日本で 何を したいですか。</t>
+  </si>
+  <si>
+    <t>你想在日本做什麼？</t>
+  </si>
+  <si>
+    <t>…りょこうを したり、おちゃを ならったり したいです。</t>
+  </si>
+  <si>
+    <t>…旅行を したり、お茶を 習ったり したいです。</t>
+  </si>
+  <si>
+    <t>我想去旅行，學習茶道。</t>
+  </si>
+  <si>
+    <t>からだの ちょうしは どうですか。</t>
+  </si>
+  <si>
+    <t>体の 調子は どうですか。</t>
+  </si>
+  <si>
+    <t>你感覺怎麼樣？</t>
+  </si>
+  <si>
+    <t>…おかげさまで よく なりました。</t>
+  </si>
+  <si>
+    <t>多虧了你，我感覺好多了。</t>
+  </si>
+  <si>
+    <t>にほんごが じょうずに なりましたね。</t>
+  </si>
+  <si>
+    <t>日本語が 上手に なりましたね。</t>
+  </si>
+  <si>
+    <t>你的日語進步了。</t>
+  </si>
+  <si>
+    <t>…ありがとう</t>
+  </si>
+  <si>
+    <t>ございます。 でも、まだまだです。</t>
+  </si>
+  <si>
+    <t>非常感謝。不過還有很長的路要走。</t>
+  </si>
+  <si>
+    <t>テレサちゃんは なんに なりたいですか。</t>
+  </si>
+  <si>
+    <t>テレサちゃんは 何に なりたいですか。</t>
+  </si>
+  <si>
+    <t>你想做什麼，特蕾莎？</t>
+  </si>
+  <si>
+    <t>……我想成為一名醫生。</t>
+  </si>
+  <si>
+    <t>…いしゃに なりたいです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…医者に なりたいです。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,9 +1683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1567,7 +1723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1673,7 +1829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1815,7 +1971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1823,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1834,10 +1990,6 @@
     <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="62.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3273,240 +3425,429 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="B144" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="C145" t="s">
-        <v>224</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>444</v>
       </c>
       <c r="C146" t="s">
-        <v>226</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>278</v>
+        <v>448</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>449</v>
       </c>
       <c r="C147" t="s">
-        <v>227</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>228</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="C148" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>455</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="B150" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="C150" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>465</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>463</v>
+      </c>
+      <c r="C152" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>239</v>
+        <v>466</v>
+      </c>
+      <c r="B153" t="s">
+        <v>467</v>
+      </c>
+      <c r="C153" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>240</v>
+        <v>469</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>470</v>
       </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>243</v>
+        <v>472</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>473</v>
       </c>
       <c r="C155" t="s">
-        <v>245</v>
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>246</v>
-      </c>
-      <c r="B156" t="s">
-        <v>247</v>
+        <v>475</v>
       </c>
       <c r="C156" t="s">
-        <v>248</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>477</v>
+      </c>
+      <c r="B157" t="s">
+        <v>478</v>
+      </c>
+      <c r="C157" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="B158" t="s">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="B159" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="C159" t="s">
-        <v>255</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>256</v>
+        <v>487</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>488</v>
       </c>
       <c r="C160" t="s">
-        <v>258</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>259</v>
-      </c>
-      <c r="B161" t="s">
-        <v>260</v>
-      </c>
-      <c r="C161" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
-        <v>263</v>
+        <v>222</v>
+      </c>
+      <c r="C162" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>275</v>
+      </c>
+      <c r="B163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>278</v>
+      </c>
+      <c r="B165" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C166" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>229</v>
+      </c>
+      <c r="B167" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>237</v>
+      </c>
+      <c r="B170" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" t="s">
+        <v>241</v>
+      </c>
+      <c r="C172" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" t="s">
+        <v>244</v>
+      </c>
+      <c r="C173" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>250</v>
+      </c>
+      <c r="B176" t="s">
+        <v>251</v>
+      </c>
+      <c r="C176" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" t="s">
+        <v>254</v>
+      </c>
+      <c r="C177" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>256</v>
+      </c>
+      <c r="B178" t="s">
+        <v>257</v>
+      </c>
+      <c r="C178" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>259</v>
+      </c>
+      <c r="B179" t="s">
+        <v>260</v>
+      </c>
+      <c r="C179" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>265</v>
+      </c>
+      <c r="B182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>269</v>
+      </c>
+      <c r="B184" t="s">
+        <v>270</v>
+      </c>
+      <c r="C184" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>272</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B185" t="s">
         <v>273</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C185" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA4DC5A-12B5-4E3A-A0C5-50F98313CB6E}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2689FDB7-5C41-40EB-B719-1BD7AB6CB44C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="494">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1447,156 +1447,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>相撲 を 見た ことが あります。</t>
+  </si>
+  <si>
+    <t>我看過相撲比賽。</t>
+  </si>
+  <si>
+    <t>休息日我會打網球和散步。</t>
+  </si>
+  <si>
+    <t>これから だんだん あつく なります。</t>
+  </si>
+  <si>
+    <t>これから だんだん 暑く なります。</t>
+  </si>
+  <si>
+    <t>從現在開始天氣會越來越熱。</t>
+  </si>
+  <si>
+    <t>やすみの ひ は テニスを したり、 さんぽ に いったり します。</t>
+  </si>
+  <si>
+    <t>休みの 日は テニスを したり、 散歩に 行ったり します。</t>
+  </si>
+  <si>
+    <t>ほっかいどうへ いった ことが ありますか。</t>
+  </si>
+  <si>
+    <t>北海道へ 行った ことが ありますか。</t>
+  </si>
+  <si>
+    <t>您去過北海道嗎？</t>
+  </si>
+  <si>
+    <t>…はい、いちど あります。 2ねんまえに ともだちと いきました。</t>
+  </si>
+  <si>
+    <t>…はい、一度 あります。 2年まえに 友達と 行きました。</t>
+  </si>
+  <si>
+    <t>……去過一次。兩年前我和一個朋友一起去過。</t>
+  </si>
+  <si>
+    <t>うまに のった ことが ありますか。</t>
+  </si>
+  <si>
+    <t>馬に 乗った ことが ありますか。</t>
+  </si>
+  <si>
+    <t>你騎過馬嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、いちども ありません。 ぜひ のりたいです。</t>
+  </si>
+  <si>
+    <t>…いいえ、一度も ありません。 ぜひ 乗りたいです。</t>
+  </si>
+  <si>
+    <t>……不，從來沒有。我很想騎它。</t>
+  </si>
+  <si>
+    <t>ふゆやすみは なにを しましたか。</t>
+  </si>
+  <si>
+    <t>冬休みは 何を しましたか。</t>
+  </si>
+  <si>
+    <t>你的寒假做了什麼？</t>
+  </si>
+  <si>
+    <t>…京都の お寺や 神社を 見たり、友達と パーティーを したり しました。</t>
+  </si>
+  <si>
+    <t>……我參觀了京都的寺廟和神社，也和朋友們一起聚會。</t>
+  </si>
+  <si>
+    <t>きょうとの おてらや じんじゃ みたり ともだちと パーティーを。</t>
+  </si>
+  <si>
+    <t>にほんで なにを したいですか。</t>
+  </si>
+  <si>
+    <t>日本で 何を したいですか。</t>
+  </si>
+  <si>
+    <t>你想在日本做什麼？</t>
+  </si>
+  <si>
+    <t>…りょこうを したり、おちゃを ならったり したいです。</t>
+  </si>
+  <si>
+    <t>…旅行を したり、お茶を 習ったり したいです。</t>
+  </si>
+  <si>
+    <t>我想去旅行，學習茶道。</t>
+  </si>
+  <si>
+    <t>からだの ちょうしは どうですか。</t>
+  </si>
+  <si>
+    <t>体の 調子は どうですか。</t>
+  </si>
+  <si>
+    <t>你感覺怎麼樣？</t>
+  </si>
+  <si>
+    <t>…おかげさまで よく なりました。</t>
+  </si>
+  <si>
+    <t>多虧了你，我感覺好多了。</t>
+  </si>
+  <si>
+    <t>にほんごが じょうずに なりましたね。</t>
+  </si>
+  <si>
+    <t>日本語が 上手に なりましたね。</t>
+  </si>
+  <si>
+    <t>你的日語進步了。</t>
+  </si>
+  <si>
+    <t>…ありがとう</t>
+  </si>
+  <si>
+    <t>ございます。 でも、まだまだです。</t>
+  </si>
+  <si>
+    <t>非常感謝。不過還有很長的路要走。</t>
+  </si>
+  <si>
+    <t>テレサちゃんは なんに なりたいですか。</t>
+  </si>
+  <si>
+    <t>テレサちゃんは 何に なりたいですか。</t>
+  </si>
+  <si>
+    <t>你想做什麼，特蕾莎？</t>
+  </si>
+  <si>
+    <t>……我想成為一名醫生。</t>
+  </si>
+  <si>
+    <t>…いしゃに なりたいです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…医者に なりたいです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>すもう を みた ことが あります。</t>
-  </si>
-  <si>
-    <t>相撲 を 見た ことが あります。</t>
-  </si>
-  <si>
-    <t>我看過相撲比賽。</t>
-  </si>
-  <si>
-    <t>休息日我會打網球和散步。</t>
-  </si>
-  <si>
-    <t>これから だんだん あつく なります。</t>
-  </si>
-  <si>
-    <t>これから だんだん 暑く なります。</t>
-  </si>
-  <si>
-    <t>從現在開始天氣會越來越熱。</t>
-  </si>
-  <si>
-    <t>やすみの ひ は テニスを したり、 さんぽ に いったり します。</t>
-  </si>
-  <si>
-    <t>休みの 日は テニスを したり、 散歩に 行ったり します。</t>
-  </si>
-  <si>
-    <t>ほっかいどうへ いった ことが ありますか。</t>
-  </si>
-  <si>
-    <t>北海道へ 行った ことが ありますか。</t>
-  </si>
-  <si>
-    <t>您去過北海道嗎？</t>
-  </si>
-  <si>
-    <t>…はい、いちど あります。 2ねんまえに ともだちと いきました。</t>
-  </si>
-  <si>
-    <t>…はい、一度 あります。 2年まえに 友達と 行きました。</t>
-  </si>
-  <si>
-    <t>……去過一次。兩年前我和一個朋友一起去過。</t>
-  </si>
-  <si>
-    <t>うまに のった ことが ありますか。</t>
-  </si>
-  <si>
-    <t>馬に 乗った ことが ありますか。</t>
-  </si>
-  <si>
-    <t>你騎過馬嗎？</t>
-  </si>
-  <si>
-    <t>…いいえ、いちども ありません。 ぜひ のりたいです。</t>
-  </si>
-  <si>
-    <t>…いいえ、一度も ありません。 ぜひ 乗りたいです。</t>
-  </si>
-  <si>
-    <t>……不，從來沒有。我很想騎它。</t>
-  </si>
-  <si>
-    <t>ふゆやすみは なにを しましたか。</t>
-  </si>
-  <si>
-    <t>冬休みは 何を しましたか。</t>
-  </si>
-  <si>
-    <t>你的寒假做了什麼？</t>
-  </si>
-  <si>
-    <t>…京都の お寺や 神社を 見たり、友達と パーティーを したり しました。</t>
-  </si>
-  <si>
-    <t>……我參觀了京都的寺廟和神社，也和朋友們一起聚會。</t>
-  </si>
-  <si>
-    <t>きょうとの おてらや じんじゃ みたり ともだちと パーティーを。</t>
-  </si>
-  <si>
-    <t>にほんで なにを したいですか。</t>
-  </si>
-  <si>
-    <t>日本で 何を したいですか。</t>
-  </si>
-  <si>
-    <t>你想在日本做什麼？</t>
-  </si>
-  <si>
-    <t>…りょこうを したり、おちゃを ならったり したいです。</t>
-  </si>
-  <si>
-    <t>…旅行を したり、お茶を 習ったり したいです。</t>
-  </si>
-  <si>
-    <t>我想去旅行，學習茶道。</t>
-  </si>
-  <si>
-    <t>からだの ちょうしは どうですか。</t>
-  </si>
-  <si>
-    <t>体の 調子は どうですか。</t>
-  </si>
-  <si>
-    <t>你感覺怎麼樣？</t>
-  </si>
-  <si>
-    <t>…おかげさまで よく なりました。</t>
-  </si>
-  <si>
-    <t>多虧了你，我感覺好多了。</t>
-  </si>
-  <si>
-    <t>にほんごが じょうずに なりましたね。</t>
-  </si>
-  <si>
-    <t>日本語が 上手に なりましたね。</t>
-  </si>
-  <si>
-    <t>你的日語進步了。</t>
-  </si>
-  <si>
-    <t>…ありがとう</t>
-  </si>
-  <si>
-    <t>ございます。 でも、まだまだです。</t>
-  </si>
-  <si>
-    <t>非常感謝。不過還有很長的路要走。</t>
-  </si>
-  <si>
-    <t>テレサちゃんは なんに なりたいですか。</t>
-  </si>
-  <si>
-    <t>テレサちゃんは 何に なりたいですか。</t>
-  </si>
-  <si>
-    <t>你想做什麼，特蕾莎？</t>
-  </si>
-  <si>
-    <t>……我想成為一名醫生。</t>
-  </si>
-  <si>
-    <t>…いしゃに なりたいです。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…医者に なりたいです。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ポルトガル と ドイツ へ 行った ことが あります。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去過葡萄牙和德國。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすみのひは やまにのぼったり えいがをみたり します。</t>
+  </si>
+  <si>
+    <t>休みの 日は、山に登ったり、映画を見たり します。</t>
+  </si>
+  <si>
+    <t>休息日我喜歡爬山和看電影。</t>
   </si>
 </sst>
 </file>
@@ -1683,9 +1701,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1723,7 +1741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1829,7 +1847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1971,7 +1989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1979,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3430,424 +3448,443 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" t="s">
         <v>439</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>440</v>
-      </c>
-      <c r="C144" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>446</v>
-      </c>
-      <c r="B145" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="C145" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B146" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C146" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="B147" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C147" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B148" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C148" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B149" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C149" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B150" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C150" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B151" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C151" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B152" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C152" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B153" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C153" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B154" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C154" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B155" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C155" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>475</v>
+        <v>468</v>
+      </c>
+      <c r="B156" t="s">
+        <v>469</v>
       </c>
       <c r="C156" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B157" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C157" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>480</v>
-      </c>
-      <c r="B158" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B159" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C159" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C160" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>482</v>
+      </c>
+      <c r="B161" t="s">
+        <v>483</v>
+      </c>
+      <c r="C161" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>221</v>
+        <v>486</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>487</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>275</v>
-      </c>
-      <c r="B163" t="s">
-        <v>276</v>
-      </c>
-      <c r="C163" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="C164" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B166" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C166" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B167" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C167" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B170" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="C170" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="B171" t="s">
+        <v>235</v>
+      </c>
+      <c r="C171" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
-      </c>
-      <c r="C172" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>243</v>
-      </c>
-      <c r="B173" t="s">
-        <v>244</v>
-      </c>
-      <c r="C173" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>249</v>
+        <v>243</v>
+      </c>
+      <c r="B175" t="s">
+        <v>244</v>
+      </c>
+      <c r="C175" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C176" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>253</v>
-      </c>
-      <c r="B177" t="s">
-        <v>254</v>
-      </c>
-      <c r="C177" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C178" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>257</v>
+      </c>
+      <c r="C180" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>264</v>
+        <v>259</v>
+      </c>
+      <c r="B181" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B182" t="s">
-        <v>266</v>
-      </c>
-      <c r="C182" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B184" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C184" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186" t="s">
+        <v>270</v>
+      </c>
+      <c r="C186" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>272</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B187" t="s">
         <v>273</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C187" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2689FDB7-5C41-40EB-B719-1BD7AB6CB44C}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558ECF35-6E24-4FDA-B5EC-546274DFD247}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="495">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1615,6 +1615,33 @@
   </si>
   <si>
     <t>休息日我喜歡爬山和看電影。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ポルトガル と ドイツ へ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>った ことが あります。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2000,7 +2027,7 @@
   <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3457,8 +3484,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>494</v>
+      </c>
+      <c r="B145" t="s">
         <v>489</v>
       </c>
       <c r="C145" t="s">

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558ECF35-6E24-4FDA-B5EC-546274DFD247}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC56D159-F79F-4433-B662-F9F14EF69F2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
@@ -1608,12 +1608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>やすみのひは やまにのぼったり えいがをみたり します。</t>
-  </si>
-  <si>
-    <t>休みの 日は、山に登ったり、映画を見たり します。</t>
-  </si>
-  <si>
     <t>休息日我喜歡爬山和看電影。</t>
   </si>
   <si>
@@ -1641,6 +1635,14 @@
       </rPr>
       <t>った ことが あります。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休みの 日は、山に登ったり、映画を見たり します。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすみのひは、やまにのぼったり、えいがをみたり します。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,7 +2029,7 @@
   <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3486,7 +3488,7 @@
     </row>
     <row r="145" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B145" t="s">
         <v>489</v>
@@ -3508,13 +3510,13 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>494</v>
+      </c>
+      <c r="B147" t="s">
+        <v>493</v>
+      </c>
+      <c r="C147" t="s">
         <v>491</v>
-      </c>
-      <c r="B147" t="s">
-        <v>492</v>
-      </c>
-      <c r="C147" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC56D159-F79F-4433-B662-F9F14EF69F2D}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5932B34D-26A7-4737-B34D-8374B862CBED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="554">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1643,6 +1643,188 @@
   </si>
   <si>
     <t>やすみのひは、やまにのぼったり、えいがをみたり します。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第22課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは ミラーさんが つくった ケーキです</t>
+  </si>
+  <si>
+    <t>これは ミラーさんが 作った ケーキです</t>
+  </si>
+  <si>
+    <t>這是米勒先生做的蛋糕</t>
+  </si>
+  <si>
+    <t>あそこに いる ひとは ミラーさんです</t>
+  </si>
+  <si>
+    <t>あそこに いる 人は ミラーさんです</t>
+  </si>
+  <si>
+    <t>那邊那位就是米勒先生</t>
+  </si>
+  <si>
+    <t>きのう ならった ことばを わすれました</t>
+  </si>
+  <si>
+    <t>きのう 習った ことばを 忘れました</t>
+  </si>
+  <si>
+    <t>我忘了昨天學的詞了</t>
+  </si>
+  <si>
+    <t>かいものに いく じかんが ありません</t>
+  </si>
+  <si>
+    <t>買い物に 行く 時間が ありません</t>
+  </si>
+  <si>
+    <t>我沒時間去購物</t>
+  </si>
+  <si>
+    <t>これは ばんり の ちょうじょうで とった しゃしんです</t>
+  </si>
+  <si>
+    <t>これは 万里 の 長城で 撮った 写真です</t>
+  </si>
+  <si>
+    <t>這是我在萬里長城拍的照片</t>
+  </si>
+  <si>
+    <t>…そうですか すごいですね</t>
+  </si>
+  <si>
+    <t>我明白了,真了不起</t>
+  </si>
+  <si>
+    <t>カリナさんが かいた えは どれですか</t>
+  </si>
+  <si>
+    <t>カリナさんが かいた 絵は どれですか</t>
+  </si>
+  <si>
+    <t>卡琳娜畫的是哪幅畫？</t>
+  </si>
+  <si>
+    <t>あれです。 あの うみの えです。</t>
+  </si>
+  <si>
+    <t>あれです。 あの 海の 絵です。</t>
+  </si>
+  <si>
+    <t>就是那幅畫，畫的是大海。</t>
+  </si>
+  <si>
+    <t>あの き ものを きて いる ひとは だれですか。</t>
+  </si>
+  <si>
+    <t>あの 着物を 着て いる 人は だれですか。</t>
+  </si>
+  <si>
+    <t>那位穿和服的人是誰？</t>
+  </si>
+  <si>
+    <t>き むらさんです。</t>
+  </si>
+  <si>
+    <t>木村さんです。</t>
+  </si>
+  <si>
+    <t>是木村先生。</t>
+  </si>
+  <si>
+    <t>やまださん、おくさんに はじめて あった ところは どこですか。</t>
+  </si>
+  <si>
+    <t>山田さん、奥さんに 初めて 会った 所は どこですか。</t>
+  </si>
+  <si>
+    <t>山田先生，您和您太太第一次見面是在哪裡？</t>
+  </si>
+  <si>
+    <t>おおさかじょうです。</t>
+  </si>
+  <si>
+    <t>大阪城です。</t>
+  </si>
+  <si>
+    <t>是在大阪。</t>
+  </si>
+  <si>
+    <t>きむらさんと いった コンサートは どうでしたか。</t>
+  </si>
+  <si>
+    <t>你和木村先生一起去看的演唱會怎麼樣？</t>
+  </si>
+  <si>
+    <t>とても よかったです。</t>
+  </si>
+  <si>
+    <t>真的很好。</t>
+  </si>
+  <si>
+    <t>どう しましたか。</t>
+  </si>
+  <si>
+    <t>怎麼了？</t>
+  </si>
+  <si>
+    <t>きのう かった かさを なくしました。</t>
+  </si>
+  <si>
+    <t>きのう 買った 傘を なくしました。</t>
+  </si>
+  <si>
+    <t>我把昨天買的傘弄丟了。</t>
+  </si>
+  <si>
+    <t>木村さんと 行った コンサートは どうでしたか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんな うちが ほしいですか。</t>
+  </si>
+  <si>
+    <t>どんな うちが 欲しいですか。</t>
+  </si>
+  <si>
+    <t>你想要什麼樣的房子？</t>
+  </si>
+  <si>
+    <t>ひろい にわが ある うちが ほしいです。</t>
+  </si>
+  <si>
+    <t>我想要一棟有大花園的房子。</t>
+  </si>
+  <si>
+    <t>今晚想出去喝一杯嗎？</t>
+  </si>
+  <si>
+    <t>すみません。こんばんは ちょっと ともだちに あう やくそくが あります。</t>
+  </si>
+  <si>
+    <t>すみません。今晩は ちょっと 友達に 会う 約束が あります。</t>
+  </si>
+  <si>
+    <t>抱歉，晚上我約了個朋友。</t>
+  </si>
+  <si>
+    <t>広い 庭が ある うちが 欲しいです。</t>
+  </si>
+  <si>
+    <t>*第20課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第21課文型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待編輯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2026,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3683,240 +3865,476 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>221</v>
-      </c>
-      <c r="B164" t="s">
-        <v>222</v>
-      </c>
-      <c r="C164" t="s">
-        <v>223</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>275</v>
-      </c>
-      <c r="B165" t="s">
-        <v>276</v>
-      </c>
-      <c r="C165" t="s">
-        <v>224</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>225</v>
-      </c>
-      <c r="B166" t="s">
-        <v>277</v>
-      </c>
-      <c r="C166" t="s">
-        <v>226</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>278</v>
-      </c>
-      <c r="B167" t="s">
-        <v>279</v>
-      </c>
-      <c r="C167" t="s">
-        <v>227</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>496</v>
       </c>
       <c r="B168" t="s">
-        <v>280</v>
+        <v>497</v>
       </c>
       <c r="C168" t="s">
-        <v>281</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>499</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>500</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>501</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>502</v>
       </c>
       <c r="B170" t="s">
-        <v>232</v>
+        <v>503</v>
       </c>
       <c r="C170" t="s">
-        <v>233</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>505</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>506</v>
       </c>
       <c r="C171" t="s">
-        <v>236</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>237</v>
+        <v>508</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>509</v>
+      </c>
+      <c r="C172" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>511</v>
+      </c>
+      <c r="C173" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>513</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>514</v>
       </c>
       <c r="C174" t="s">
-        <v>242</v>
+        <v>515</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>516</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>517</v>
       </c>
       <c r="C175" t="s">
-        <v>245</v>
+        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>246</v>
+        <v>519</v>
       </c>
       <c r="B176" t="s">
-        <v>247</v>
+        <v>520</v>
       </c>
       <c r="C176" t="s">
-        <v>248</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>249</v>
+        <v>522</v>
+      </c>
+      <c r="B177" t="s">
+        <v>523</v>
+      </c>
+      <c r="C177" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="B178" t="s">
-        <v>251</v>
+        <v>526</v>
       </c>
       <c r="C178" t="s">
-        <v>252</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>253</v>
+        <v>528</v>
       </c>
       <c r="B179" t="s">
-        <v>254</v>
+        <v>529</v>
       </c>
       <c r="C179" t="s">
-        <v>255</v>
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>256</v>
+        <v>531</v>
       </c>
       <c r="B180" t="s">
-        <v>257</v>
+        <v>540</v>
       </c>
       <c r="C180" t="s">
-        <v>258</v>
+        <v>532</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>259</v>
-      </c>
-      <c r="B181" t="s">
-        <v>260</v>
+        <v>533</v>
       </c>
       <c r="C181" t="s">
-        <v>261</v>
+        <v>534</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>262</v>
-      </c>
-      <c r="B182" t="s">
-        <v>263</v>
+        <v>535</v>
+      </c>
+      <c r="C182" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>537</v>
+      </c>
+      <c r="B183" t="s">
+        <v>538</v>
+      </c>
+      <c r="C183" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>265</v>
+        <v>541</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>542</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>543</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>268</v>
+        <v>544</v>
+      </c>
+      <c r="B185" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>271</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>547</v>
+      </c>
+      <c r="B187" t="s">
+        <v>548</v>
+      </c>
+      <c r="C187" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>221</v>
+      </c>
+      <c r="B189" t="s">
+        <v>222</v>
+      </c>
+      <c r="C189" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>275</v>
+      </c>
+      <c r="B190" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>225</v>
+      </c>
+      <c r="B191" t="s">
+        <v>277</v>
+      </c>
+      <c r="C191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>278</v>
+      </c>
+      <c r="B192" t="s">
+        <v>279</v>
+      </c>
+      <c r="C192" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>228</v>
+      </c>
+      <c r="B193" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>229</v>
+      </c>
+      <c r="B194" t="s">
+        <v>282</v>
+      </c>
+      <c r="C194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>231</v>
+      </c>
+      <c r="B195" t="s">
+        <v>232</v>
+      </c>
+      <c r="C195" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" t="s">
+        <v>235</v>
+      </c>
+      <c r="C196" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>237</v>
+      </c>
+      <c r="B197" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>240</v>
+      </c>
+      <c r="B199" t="s">
+        <v>241</v>
+      </c>
+      <c r="C199" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>243</v>
+      </c>
+      <c r="B200" t="s">
+        <v>244</v>
+      </c>
+      <c r="C200" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>246</v>
+      </c>
+      <c r="B201" t="s">
+        <v>247</v>
+      </c>
+      <c r="C201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>253</v>
+      </c>
+      <c r="B204" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" t="s">
+        <v>257</v>
+      </c>
+      <c r="C205" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>259</v>
+      </c>
+      <c r="B206" t="s">
+        <v>260</v>
+      </c>
+      <c r="C206" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>262</v>
+      </c>
+      <c r="B207" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209" t="s">
+        <v>266</v>
+      </c>
+      <c r="C209" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>269</v>
+      </c>
+      <c r="B211" t="s">
+        <v>270</v>
+      </c>
+      <c r="C211" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>272</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B212" t="s">
         <v>273</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C212" t="s">
         <v>274</v>
       </c>
     </row>

--- a/00-日語文型整理.xlsx
+++ b/00-日語文型整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5932B34D-26A7-4737-B34D-8374B862CBED}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="14_{CE00BD51-3521-405A-8612-7683B195C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF5CC43-C76B-4CDA-9C3B-E732C9080A60}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0F3A2E6B-B5D2-4B57-9A1E-3E6BF54CF7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="660">
   <si>
     <t>わたしわ マイク・ミラーです</t>
   </si>
@@ -1824,8 +1824,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待編輯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>サントスさんは パーティーに こなかった</t>
+  </si>
+  <si>
+    <t>サントスさんは パーティーに 来なかった</t>
+  </si>
+  <si>
+    <t>桑托斯沒來參加聚會</t>
+  </si>
+  <si>
+    <t>にほんは ぶっか たかい</t>
+  </si>
+  <si>
+    <t>日本は 物価が 高い</t>
+  </si>
+  <si>
+    <t>日本物價很高</t>
+  </si>
+  <si>
+    <t>おきなわの うみは きれいだった</t>
+  </si>
+  <si>
+    <t>沖縄の海は きれいだった</t>
+  </si>
+  <si>
+    <t>沖繩的海很美</t>
+  </si>
+  <si>
+    <t>きょうは ぼくの たん じょう びだ</t>
+  </si>
+  <si>
+    <t>きょうは 僕の 誕生日だ</t>
+  </si>
+  <si>
+    <t>今天是我的生日</t>
+  </si>
+  <si>
+    <t>アイスクーム[を] たべる?</t>
+  </si>
+  <si>
+    <t>アイスクーム[を] 食べる?</t>
+  </si>
+  <si>
+    <t>你想吃冰淇淋嗎？</t>
+  </si>
+  <si>
+    <t>…うん,食べる</t>
+  </si>
+  <si>
+    <t>……是的，我想吃</t>
+  </si>
+  <si>
+    <t>そこに はさみ[が] ある?</t>
+  </si>
+  <si>
+    <t>你那裡有剪刀嗎？</t>
+  </si>
+  <si>
+    <t>…ううん,ない</t>
+  </si>
+  <si>
+    <t>……沒有。</t>
+  </si>
+  <si>
+    <t>きのう きむらさんに あった?</t>
+  </si>
+  <si>
+    <t>きのう 木村さんに 会った?</t>
+  </si>
+  <si>
+    <t>你昨天見到木村先生了嗎？</t>
+  </si>
+  <si>
+    <t>…ううん,あわなかった</t>
+  </si>
+  <si>
+    <t>…ううん,会わなかった</t>
+  </si>
+  <si>
+    <t>……沒有</t>
+  </si>
+  <si>
+    <t>あした みんなで きょうと[へ] いかない?</t>
+  </si>
+  <si>
+    <t>あした みんなで 京都[へ] 行かない?</t>
+  </si>
+  <si>
+    <t>我們明天一起去京都怎麼樣?</t>
+  </si>
+  <si>
+    <t>…うん,いいね</t>
+  </si>
+  <si>
+    <t>……好啊，聽起來不錯。</t>
+  </si>
+  <si>
+    <t>その カレーライス[は] おいしい?</t>
+  </si>
+  <si>
+    <t>那咖哩飯好吃嗎？</t>
+  </si>
+  <si>
+    <t>…うん,からいけど,おいしい</t>
+  </si>
+  <si>
+    <t>…うん,辛いけど,おいしい</t>
+  </si>
+  <si>
+    <t>……是的，有點辣，但是很好吃。</t>
+  </si>
+  <si>
+    <t>いまひま</t>
+  </si>
+  <si>
+    <t>今暇?</t>
+  </si>
+  <si>
+    <t>你現在有空嗎？</t>
+  </si>
+  <si>
+    <t>…うん,ひま。なに?</t>
+  </si>
+  <si>
+    <t>……是的，我有空。什麼事？</t>
+  </si>
+  <si>
+    <t>ちょっと てつだって</t>
+  </si>
+  <si>
+    <t>じしょ[を] もって [い]る?</t>
+  </si>
+  <si>
+    <t>辞書[を] 持って [い]る?</t>
+  </si>
+  <si>
+    <t>…ううん,もって [い]ない</t>
+  </si>
+  <si>
+    <t>…ううん, 持って [い]ない。</t>
+  </si>
+  <si>
+    <t>……沒有，我沒有。</t>
+  </si>
+  <si>
+    <t>…うん,暇。 何?</t>
+  </si>
+  <si>
+    <t>ちょっと 手伝って</t>
+  </si>
+  <si>
+    <t>請幫個忙</t>
+  </si>
+  <si>
+    <t>你有字典嗎？</t>
+  </si>
+  <si>
+    <t>あした あめが ふると おもいます</t>
+  </si>
+  <si>
+    <t>あした 雨が 降ると 思います</t>
+  </si>
+  <si>
+    <t>我覺得明天會下雨</t>
+  </si>
+  <si>
+    <t>しゅしょうは らいげつ アメりカへ いくと いいました</t>
+  </si>
+  <si>
+    <t>首相說他下個月要去美國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相は 来月 アメりカへ 行くと 言いました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しごとと かぞくと どちらが たいせつですか</t>
+  </si>
+  <si>
+    <t>工作和家庭,哪個比較重要？</t>
+  </si>
+  <si>
+    <t>…どちらも たいせつだと おもいます</t>
+  </si>
+  <si>
+    <t>…どちらも 大切だと 思います</t>
+  </si>
+  <si>
+    <t>我認為兩者都很重要。</t>
+  </si>
+  <si>
+    <t>にほんに ついて どう おもいますか</t>
+  </si>
+  <si>
+    <t>日本に ついて どう 思いますか</t>
+  </si>
+  <si>
+    <t>你覺得日本怎麼樣？</t>
+  </si>
+  <si>
+    <t>…ぶっかが たかいと おもいます</t>
+  </si>
+  <si>
+    <t>…物価が 高いと 思います</t>
+  </si>
+  <si>
+    <t>我覺得物價很高</t>
+  </si>
+  <si>
+    <t>仕事と 家族と どちらが 大切ですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミラーさんは どこですか</t>
+  </si>
+  <si>
+    <t>米勒先生在哪裡？</t>
+  </si>
+  <si>
+    <t>…かいぎしつに いると おもいます</t>
+  </si>
+  <si>
+    <t>…会議室に いると 思います</t>
+  </si>
+  <si>
+    <t>我想他在會議室</t>
+  </si>
+  <si>
+    <t>ミラーさんは この ニュースを しって いますか</t>
+  </si>
+  <si>
+    <t>ミラーさんは この ニュースを 知って いますか</t>
+  </si>
+  <si>
+    <t>米勒知道這個消息嗎？</t>
+  </si>
+  <si>
+    <t>…いいえ、たぶん 知らないと 思います</t>
+  </si>
+  <si>
+    <t>不，我想他不知道</t>
+  </si>
+  <si>
+    <t>ミラーさんは しゅっちょうして いましたから</t>
+  </si>
+  <si>
+    <t>ミラーさんは 出張して いましたから</t>
+  </si>
+  <si>
+    <t>米勒當時正在出差</t>
+  </si>
+  <si>
+    <t>…いいえ、たぶん しらないと おもいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テレサちゃんは もう ねましたか</t>
+  </si>
+  <si>
+    <t>テレサちゃんは もう 寝ましたか</t>
+  </si>
+  <si>
+    <t>特蕾莎睡了嗎？</t>
+  </si>
+  <si>
+    <t>…はい、もう 寝たと 思います</t>
+  </si>
+  <si>
+    <t>……是的，我想她已經睡著了</t>
+  </si>
+  <si>
+    <t>…はい、もう ねたと おもいます</t>
+  </si>
+  <si>
+    <t>しょくじの まえに,おいのりを しますか</t>
+  </si>
+  <si>
+    <t>食事の まえに,お祈りを しますか</t>
+  </si>
+  <si>
+    <t>你飯前會禱告嗎?</t>
+  </si>
+  <si>
+    <t>…いいえ,しませんが,「いただきます」と いいます</t>
+  </si>
+  <si>
+    <t>…いいえ,しませんが,「いただきます」と 言います</t>
+  </si>
+  <si>
+    <t>不，我不會，但我會說 itadakimasu (謝謝款待)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいぎで なにか いけんを いいましたか</t>
+  </si>
+  <si>
+    <t>会議で 何か 意見を 言いましたか</t>
+  </si>
+  <si>
+    <t>你在會議上發言了嗎？</t>
+  </si>
+  <si>
+    <t>…はい。むだな コピーが おおいと いいました</t>
+  </si>
+  <si>
+    <t>…はい。むだな コピーが 多いと 言いました</t>
+  </si>
+  <si>
+    <t>……是的。我說拷貝太多份了</t>
+  </si>
+  <si>
+    <t>7月に 京都で お祭りが あるでしょう?</t>
+  </si>
+  <si>
+    <t>京都七月有個慶典，對吧?</t>
+  </si>
+  <si>
+    <t>…ええ,あります</t>
+  </si>
+  <si>
+    <t>……是的。</t>
+  </si>
+  <si>
+    <t>がつに きょうとで おまつりが あるでしょう?</t>
   </si>
 </sst>
 </file>
@@ -1912,9 +2234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1952,7 +2274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2058,7 +2380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2200,7 +2522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2208,20 +2530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91EE72-412B-4BEC-A7E9-A97446845EE1}">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2232,12 +2554,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2248,7 +2570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2256,7 +2578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2267,7 +2589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2278,7 +2600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2298,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2309,7 +2631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2342,7 +2664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2364,7 +2686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2386,7 +2708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2397,7 +2719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2408,7 +2730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2419,7 +2741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2430,12 +2752,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2446,7 +2768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2779,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2479,7 +2801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2498,7 +2820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2506,7 +2828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2514,7 +2836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2525,7 +2847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -2536,7 +2858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2547,7 +2869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2558,7 +2880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2569,7 +2891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2580,7 +2902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2591,7 +2913,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2602,7 +2924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -2613,7 +2935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -2621,7 +2943,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2632,7 +2954,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2643,7 +2965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2654,12 +2976,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2670,7 +2992,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2681,7 +3003,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2689,7 +3011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2697,7 +3019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2705,7 +3027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2716,7 +3038,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -2724,7 +3046,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2732,7 +3054,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -2740,7 +3062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2751,7 +3073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -2762,7 +3084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -2770,7 +3092,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -2781,7 +3103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -2792,7 +3114,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -2803,7 +3125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -2811,7 +3133,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -2822,7 +3144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -2830,7 +3152,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -2841,7 +3163,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -2849,7 +3171,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -2860,7 +3182,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -2871,12 +3193,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -2887,7 +3209,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -2898,7 +3220,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -2909,7 +3231,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>291</v>
       </c>
@@ -2920,7 +3242,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>294</v>
       </c>
@@ -2931,7 +3253,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>297</v>
       </c>
@@ -2942,7 +3264,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -2953,7 +3275,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -2964,7 +3286,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -2975,7 +3297,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>307</v>
       </c>
@@ -2986,7 +3308,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -2997,7 +3319,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>313</v>
       </c>
@@ -3008,7 +3330,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>316</v>
       </c>
@@ -3019,7 +3341,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>319</v>
       </c>
@@ -3030,7 +3352,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>322</v>
       </c>
@@ -3041,7 +3363,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -3052,7 +3374,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>328</v>
       </c>
@@ -3063,7 +3385,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -3074,7 +3396,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>334</v>
       </c>
@@ -3085,12 +3407,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -3101,7 +3423,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>355</v>
       </c>
@@ -3109,7 +3431,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>345</v>
       </c>
@@ -3120,7 +3442,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>348</v>
       </c>
@@ -3128,7 +3450,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>349</v>
       </c>
@@ -3139,7 +3461,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>352</v>
       </c>
@@ -3150,12 +3472,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -3163,7 +3485,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -3174,7 +3496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -3182,7 +3504,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -3193,7 +3515,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -3204,7 +3526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -3215,7 +3537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -3223,7 +3545,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -3234,7 +3556,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -3245,7 +3567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -3253,7 +3575,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>194</v>
       </c>
@@ -3264,7 +3586,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -3275,7 +3597,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -3286,7 +3608,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -3297,7 +3619,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -3308,7 +3630,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -3319,7 +3641,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -3330,7 +3652,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -3341,7 +3663,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -3349,12 +3671,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -3362,7 +3684,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -3373,7 +3695,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>411</v>
       </c>
@@ -3381,7 +3703,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>374</v>
       </c>
@@ -3392,7 +3714,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>415</v>
       </c>
@@ -3400,7 +3722,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>430</v>
       </c>
@@ -3411,7 +3733,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>431</v>
       </c>
@@ -3422,7 +3744,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -3433,7 +3755,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>362</v>
       </c>
@@ -3444,7 +3766,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>419</v>
       </c>
@@ -3455,7 +3777,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -3466,7 +3788,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>434</v>
       </c>
@@ -3477,7 +3799,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>427</v>
       </c>
@@ -3488,7 +3810,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -3496,7 +3818,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -3507,7 +3829,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>369</v>
       </c>
@@ -3518,7 +3840,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -3526,7 +3848,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>376</v>
       </c>
@@ -3537,7 +3859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>379</v>
       </c>
@@ -3548,7 +3870,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -3556,7 +3878,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>407</v>
       </c>
@@ -3567,7 +3889,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>384</v>
       </c>
@@ -3578,7 +3900,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>387</v>
       </c>
@@ -3589,7 +3911,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>390</v>
       </c>
@@ -3600,7 +3922,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>391</v>
       </c>
@@ -3611,7 +3933,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>394</v>
       </c>
@@ -3622,7 +3944,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>397</v>
       </c>
@@ -3630,7 +3952,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>399</v>
       </c>
@@ -3641,7 +3963,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>402</v>
       </c>
@@ -3652,12 +3974,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>488</v>
       </c>
@@ -3668,7 +3990,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>492</v>
       </c>
@@ -3679,7 +4001,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -3690,7 +4012,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>494</v>
       </c>
@@ -3701,7 +4023,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>442</v>
       </c>
@@ -3712,7 +4034,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>447</v>
       </c>
@@ -3723,7 +4045,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -3734,7 +4056,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>453</v>
       </c>
@@ -3745,7 +4067,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>456</v>
       </c>
@@ -3756,7 +4078,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -3767,7 +4089,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -3778,7 +4100,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>465</v>
       </c>
@@ -3789,7 +4111,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>468</v>
       </c>
@@ -3800,7 +4122,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>471</v>
       </c>
@@ -3811,7 +4133,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>474</v>
       </c>
@@ -3819,7 +4141,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -3830,7 +4152,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -3841,7 +4163,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -3852,7 +4174,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>486</v>
       </c>
@@ -3863,478 +4185,865 @@
         <v>485</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>554</v>
+      </c>
+      <c r="C164" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
+        <v>556</v>
+      </c>
+      <c r="B165" t="s">
+        <v>557</v>
+      </c>
+      <c r="C165" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>559</v>
+      </c>
+      <c r="B166" t="s">
+        <v>560</v>
+      </c>
+      <c r="C166" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>562</v>
+      </c>
+      <c r="B167" t="s">
+        <v>563</v>
+      </c>
+      <c r="C167" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>565</v>
+      </c>
+      <c r="B168" t="s">
+        <v>566</v>
+      </c>
+      <c r="C168" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>568</v>
+      </c>
+      <c r="C169" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>570</v>
+      </c>
+      <c r="C170" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>572</v>
+      </c>
+      <c r="C171" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>574</v>
+      </c>
+      <c r="B172" t="s">
+        <v>575</v>
+      </c>
+      <c r="C172" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>577</v>
+      </c>
+      <c r="B173" t="s">
+        <v>578</v>
+      </c>
+      <c r="C173" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>580</v>
+      </c>
+      <c r="B174" t="s">
+        <v>581</v>
+      </c>
+      <c r="C174" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>583</v>
+      </c>
+      <c r="C175" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>585</v>
+      </c>
+      <c r="C176" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>587</v>
+      </c>
+      <c r="B177" t="s">
+        <v>588</v>
+      </c>
+      <c r="C177" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>590</v>
+      </c>
+      <c r="B178" t="s">
+        <v>591</v>
+      </c>
+      <c r="C178" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>593</v>
+      </c>
+      <c r="B179" t="s">
+        <v>601</v>
+      </c>
+      <c r="C179" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>595</v>
+      </c>
+      <c r="B180" t="s">
+        <v>602</v>
+      </c>
+      <c r="C180" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>596</v>
+      </c>
+      <c r="B181" t="s">
+        <v>597</v>
+      </c>
+      <c r="C181" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>598</v>
+      </c>
+      <c r="B182" t="s">
+        <v>599</v>
+      </c>
+      <c r="C182" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>605</v>
+      </c>
+      <c r="B184" t="s">
+        <v>606</v>
+      </c>
+      <c r="C184" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>608</v>
+      </c>
+      <c r="B185" t="s">
+        <v>610</v>
+      </c>
+      <c r="C185" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>611</v>
+      </c>
+      <c r="B186" t="s">
+        <v>622</v>
+      </c>
+      <c r="C186" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>613</v>
+      </c>
+      <c r="B187" t="s">
+        <v>614</v>
+      </c>
+      <c r="C187" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>616</v>
+      </c>
+      <c r="B188" t="s">
+        <v>617</v>
+      </c>
+      <c r="C188" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>619</v>
+      </c>
+      <c r="B189" t="s">
+        <v>620</v>
+      </c>
+      <c r="C189" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>623</v>
+      </c>
+      <c r="C190" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>625</v>
+      </c>
+      <c r="B191" t="s">
+        <v>626</v>
+      </c>
+      <c r="C191" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>628</v>
+      </c>
+      <c r="B192" t="s">
+        <v>629</v>
+      </c>
+      <c r="C192" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>636</v>
+      </c>
+      <c r="B193" t="s">
+        <v>631</v>
+      </c>
+      <c r="C193" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>633</v>
+      </c>
+      <c r="B194" t="s">
+        <v>634</v>
+      </c>
+      <c r="C194" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>637</v>
+      </c>
+      <c r="B195" t="s">
+        <v>638</v>
+      </c>
+      <c r="C195" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>642</v>
+      </c>
+      <c r="B196" t="s">
+        <v>640</v>
+      </c>
+      <c r="C196" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>643</v>
+      </c>
+      <c r="B197" t="s">
+        <v>644</v>
+      </c>
+      <c r="C197" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>646</v>
+      </c>
+      <c r="B198" t="s">
+        <v>647</v>
+      </c>
+      <c r="C198" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>649</v>
+      </c>
+      <c r="B199" t="s">
+        <v>650</v>
+      </c>
+      <c r="C199" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>652</v>
+      </c>
+      <c r="B200" t="s">
+        <v>653</v>
+      </c>
+      <c r="C200" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>659</v>
+      </c>
+      <c r="B201" t="s">
+        <v>655</v>
+      </c>
+      <c r="C201" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>657</v>
+      </c>
+      <c r="C202" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
         <v>496</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B204" t="s">
         <v>497</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C204" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
         <v>499</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B205" t="s">
         <v>500</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C205" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
         <v>502</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B206" t="s">
         <v>503</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C206" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
         <v>505</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B207" t="s">
         <v>506</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C207" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
         <v>508</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B208" t="s">
         <v>509</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C208" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
         <v>511</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C209" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
         <v>513</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B210" t="s">
         <v>514</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C210" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
         <v>516</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B211" t="s">
         <v>517</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C211" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
         <v>519</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B212" t="s">
         <v>520</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C212" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
         <v>522</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B213" t="s">
         <v>523</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C213" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
         <v>525</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B214" t="s">
         <v>526</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C214" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
         <v>528</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B215" t="s">
         <v>529</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C215" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
         <v>531</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B216" t="s">
         <v>540</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C216" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
         <v>533</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C217" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
         <v>535</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C218" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
         <v>537</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B219" t="s">
         <v>538</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C219" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
         <v>541</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B220" t="s">
         <v>542</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C220" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
         <v>544</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B221" t="s">
         <v>550</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C221" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
         <v>197</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B222" t="s">
         <v>198</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C222" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
         <v>547</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B223" t="s">
         <v>548</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C223" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
         <v>221</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B225" t="s">
         <v>222</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C225" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
         <v>275</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B226" t="s">
         <v>276</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C226" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B227" t="s">
         <v>277</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
         <v>278</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B228" t="s">
         <v>279</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B229" t="s">
         <v>280</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C229" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B230" t="s">
         <v>282</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C230" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
         <v>231</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B231" t="s">
         <v>232</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C231" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
         <v>234</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B232" t="s">
         <v>235</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C232" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
         <v>237</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B233" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
         <v>240</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B235" t="s">
         <v>241</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C235" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
         <v>243</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B236" t="s">
         <v>244</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C236" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
         <v>246</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B237" t="s">
         <v>247</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C237" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
         <v>250</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B239" t="s">
         <v>251</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C239" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
         <v>253</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B240" t="s">
         <v>254</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C240" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
         <v>256</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B241" t="s">
         <v>257</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C241" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
         <v>259</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B242" t="s">
         <v>260</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C242" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
         <v>262</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B243" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
         <v>265</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B245" t="s">
         <v>266</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C245" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
         <v>269</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B247" t="s">
         <v>270</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C247" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
         <v>272</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B248" t="s">
         <v>273</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C248" t="s">
         <v>274</v>
       </c>
     </row>
